--- a/src/main/resources/uk/gov/hmcts/ccd/test_definitions/excel/Access_Control_Definition.xlsx
+++ b/src/main/resources/uk/gov/hmcts/ccd/test_definitions/excel/Access_Control_Definition.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiranyenigala/Projects/CCD/ccd-test-definitions/src/main/resources/uk/gov/hmcts/ccd/test_definitions/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56D4402E-E1CA-7D47-8F8A-2AE99F2C5FDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4BC8447-5A2D-954C-BCBD-EE515DC082BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="25960" firstSheet="9" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2503" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2499" uniqueCount="376">
   <si>
     <t>Jurisdiction</t>
   </si>
@@ -1275,12 +1275,6 @@
   <si>
     <t>CaseLocation</t>
   </si>
-  <si>
-    <t>Public</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
 </sst>
 </file>
 
@@ -2133,7 +2127,7 @@
     <xf numFmtId="0" fontId="62" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="587">
+  <cellXfs count="588">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -3685,6 +3679,9 @@
     </xf>
     <xf numFmtId="0" fontId="71" fillId="21" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="71" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="16">
     <cellStyle name="Explanatory Text" xfId="14" builtinId="53"/>
@@ -13907,7 +13904,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1"/>
@@ -14236,7 +14233,7 @@
   <dimension ref="A1:CR95"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="L9" sqref="J9:L9"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1"/>
@@ -16838,7 +16835,7 @@
   <dimension ref="A1:W21"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I44" sqref="I44"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1"/>
@@ -17797,8 +17794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:T293"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="95" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView showGridLines="0" topLeftCell="A34" zoomScale="95" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1"/>
@@ -18388,10 +18385,11 @@
       <c r="P16" s="54"/>
       <c r="R16" s="56"/>
     </row>
-    <row r="17" spans="1:18" s="555" customFormat="1" ht="20" customHeight="1">
+    <row r="17" spans="1:20" s="587" customFormat="1" ht="20" customHeight="1">
       <c r="A17" s="53">
         <v>42736</v>
       </c>
+      <c r="B17" s="53"/>
       <c r="C17" s="555" t="s">
         <v>321</v>
       </c>
@@ -18401,26 +18399,33 @@
       <c r="E17" s="555" t="s">
         <v>373</v>
       </c>
-      <c r="F17" s="555">
+      <c r="F17" s="560">
         <v>5</v>
       </c>
-      <c r="G17" s="555" t="s">
+      <c r="G17" s="57" t="s">
         <v>268</v>
       </c>
-      <c r="H17" s="555" t="s">
+      <c r="H17" s="57" t="s">
         <v>354</v>
       </c>
       <c r="I17" s="555" t="s">
         <v>374</v>
       </c>
-      <c r="J17" s="555">
+      <c r="J17" s="71">
         <v>1</v>
       </c>
-      <c r="P17" s="555" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" s="72" customFormat="1" ht="20" customHeight="1">
+      <c r="K17" s="72"/>
+      <c r="L17" s="72"/>
+      <c r="M17" s="61"/>
+      <c r="N17" s="72"/>
+      <c r="O17" s="72"/>
+      <c r="P17" s="54"/>
+      <c r="Q17" s="72"/>
+      <c r="R17" s="56"/>
+      <c r="S17" s="72"/>
+      <c r="T17" s="72"/>
+    </row>
+    <row r="18" spans="1:20" s="72" customFormat="1" ht="20" customHeight="1">
       <c r="A18" s="53">
         <v>42736</v>
       </c>
@@ -18451,7 +18456,7 @@
       </c>
       <c r="P18" s="54"/>
     </row>
-    <row r="19" spans="1:18" s="72" customFormat="1" ht="20" customHeight="1">
+    <row r="19" spans="1:20" s="72" customFormat="1" ht="20" customHeight="1">
       <c r="A19" s="53">
         <v>42736</v>
       </c>
@@ -18484,7 +18489,7 @@
       <c r="P19" s="54"/>
       <c r="R19" s="56"/>
     </row>
-    <row r="20" spans="1:18" s="72" customFormat="1" ht="18">
+    <row r="20" spans="1:20" s="72" customFormat="1" ht="18">
       <c r="A20" s="53">
         <v>42736</v>
       </c>
@@ -18517,10 +18522,11 @@
       <c r="P20" s="54"/>
       <c r="R20" s="56"/>
     </row>
-    <row r="21" spans="1:18" s="555" customFormat="1" ht="20" customHeight="1">
+    <row r="21" spans="1:20" s="587" customFormat="1" ht="20" customHeight="1">
       <c r="A21" s="53">
         <v>42736</v>
       </c>
+      <c r="B21" s="53"/>
       <c r="C21" s="555" t="s">
         <v>321</v>
       </c>
@@ -18530,26 +18536,33 @@
       <c r="E21" s="555" t="s">
         <v>373</v>
       </c>
-      <c r="F21" s="555">
+      <c r="F21" s="560">
         <v>5</v>
       </c>
-      <c r="G21" s="555" t="s">
+      <c r="G21" s="57" t="s">
         <v>268</v>
       </c>
-      <c r="H21" s="555" t="s">
+      <c r="H21" s="57" t="s">
         <v>354</v>
       </c>
       <c r="I21" s="555" t="s">
         <v>374</v>
       </c>
-      <c r="J21" s="555">
+      <c r="J21" s="71">
         <v>1</v>
       </c>
-      <c r="P21" s="555" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" s="72" customFormat="1" ht="18">
+      <c r="K21" s="72"/>
+      <c r="L21" s="72"/>
+      <c r="M21" s="61"/>
+      <c r="N21" s="72"/>
+      <c r="O21" s="72"/>
+      <c r="P21" s="54"/>
+      <c r="Q21" s="72"/>
+      <c r="R21" s="56"/>
+      <c r="S21" s="72"/>
+      <c r="T21" s="72"/>
+    </row>
+    <row r="22" spans="1:20" s="72" customFormat="1" ht="18">
       <c r="A22" s="53">
         <v>42736</v>
       </c>
@@ -18582,7 +18595,7 @@
       <c r="P22" s="54"/>
       <c r="R22" s="56"/>
     </row>
-    <row r="23" spans="1:18" s="72" customFormat="1" ht="18">
+    <row r="23" spans="1:20" s="72" customFormat="1" ht="18">
       <c r="A23" s="53">
         <v>42736</v>
       </c>
@@ -18613,7 +18626,7 @@
       </c>
       <c r="P23" s="54"/>
     </row>
-    <row r="24" spans="1:18" s="72" customFormat="1" ht="18">
+    <row r="24" spans="1:20" s="72" customFormat="1" ht="18">
       <c r="A24" s="53">
         <v>42736</v>
       </c>
@@ -18646,7 +18659,7 @@
       <c r="P24" s="54"/>
       <c r="R24" s="56"/>
     </row>
-    <row r="25" spans="1:18" s="72" customFormat="1" ht="18">
+    <row r="25" spans="1:20" s="72" customFormat="1" ht="18">
       <c r="A25" s="53">
         <v>42736</v>
       </c>
@@ -18679,7 +18692,7 @@
       <c r="P25" s="54"/>
       <c r="R25" s="56"/>
     </row>
-    <row r="26" spans="1:18" s="72" customFormat="1" ht="20" customHeight="1">
+    <row r="26" spans="1:20" s="72" customFormat="1" ht="20" customHeight="1">
       <c r="A26" s="53">
         <v>42736</v>
       </c>
@@ -18712,10 +18725,11 @@
       <c r="P26" s="54"/>
       <c r="R26" s="56"/>
     </row>
-    <row r="27" spans="1:18" s="555" customFormat="1" ht="20" customHeight="1">
+    <row r="27" spans="1:20" s="587" customFormat="1" ht="20" customHeight="1">
       <c r="A27" s="53">
         <v>42736</v>
       </c>
+      <c r="B27" s="53"/>
       <c r="C27" s="555" t="s">
         <v>321</v>
       </c>
@@ -18725,26 +18739,33 @@
       <c r="E27" s="555" t="s">
         <v>373</v>
       </c>
-      <c r="F27" s="555">
+      <c r="F27" s="560">
         <v>5</v>
       </c>
-      <c r="G27" s="555" t="s">
+      <c r="G27" s="57" t="s">
         <v>268</v>
       </c>
-      <c r="H27" s="555" t="s">
+      <c r="H27" s="57" t="s">
         <v>354</v>
       </c>
       <c r="I27" s="555" t="s">
         <v>374</v>
       </c>
-      <c r="J27" s="555">
+      <c r="J27" s="71">
         <v>1</v>
       </c>
-      <c r="P27" s="555" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" s="72" customFormat="1" ht="19" customHeight="1">
+      <c r="K27" s="72"/>
+      <c r="L27" s="72"/>
+      <c r="M27" s="61"/>
+      <c r="N27" s="72"/>
+      <c r="O27" s="72"/>
+      <c r="P27" s="54"/>
+      <c r="Q27" s="72"/>
+      <c r="R27" s="56"/>
+      <c r="S27" s="72"/>
+      <c r="T27" s="72"/>
+    </row>
+    <row r="28" spans="1:20" s="72" customFormat="1" ht="19" customHeight="1">
       <c r="A28" s="53">
         <v>42736</v>
       </c>
@@ -18775,7 +18796,7 @@
       </c>
       <c r="P28" s="54"/>
     </row>
-    <row r="29" spans="1:18" s="72" customFormat="1" ht="20" customHeight="1">
+    <row r="29" spans="1:20" s="72" customFormat="1" ht="20" customHeight="1">
       <c r="A29" s="53">
         <v>42736</v>
       </c>
@@ -18808,7 +18829,7 @@
       <c r="P29" s="54"/>
       <c r="R29" s="56"/>
     </row>
-    <row r="30" spans="1:18" s="72" customFormat="1" ht="20" customHeight="1">
+    <row r="30" spans="1:20" s="72" customFormat="1" ht="20" customHeight="1">
       <c r="A30" s="53">
         <v>42736</v>
       </c>
@@ -18841,7 +18862,7 @@
       <c r="P30" s="54"/>
       <c r="R30" s="56"/>
     </row>
-    <row r="31" spans="1:18" s="72" customFormat="1" ht="22" customHeight="1">
+    <row r="31" spans="1:20" s="72" customFormat="1" ht="22" customHeight="1">
       <c r="A31" s="53">
         <v>42736</v>
       </c>
@@ -18874,7 +18895,7 @@
       <c r="P31" s="54"/>
       <c r="R31" s="56"/>
     </row>
-    <row r="32" spans="1:18" s="72" customFormat="1" ht="20" customHeight="1">
+    <row r="32" spans="1:20" s="72" customFormat="1" ht="20" customHeight="1">
       <c r="A32" s="53">
         <v>42736</v>
       </c>
@@ -24478,7 +24499,7 @@
   <dimension ref="A1:H68"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD9"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1"/>
@@ -29285,8 +29306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:G268"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A39" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+    <sheetView showGridLines="0" topLeftCell="A5" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1"/>
@@ -32313,8 +32334,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:D15"/>
+    <sheetView topLeftCell="AE1" workbookViewId="0">
+      <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
@@ -32593,8 +32614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:EK80"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J42" sqref="J42"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1"/>
@@ -33940,8 +33961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:G72"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AC80" sqref="AC80"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X52" sqref="X52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1"/>
@@ -35271,7 +35292,7 @@
   <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24:E25"/>
+      <selection activeCell="R46" sqref="R46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
@@ -36106,7 +36127,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1"/>
@@ -36712,7 +36733,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H26" sqref="H26"/>
+      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1"/>
@@ -37040,53 +37061,53 @@
       <c r="O10" s="54"/>
     </row>
     <row r="11" spans="1:15" s="318" customFormat="1" ht="21" customHeight="1">
-      <c r="A11" s="53"/>
-      <c r="B11" s="53"/>
-      <c r="C11" s="557" t="s">
-        <v>322</v>
+      <c r="A11" s="59"/>
+      <c r="B11" s="75"/>
+      <c r="C11" s="555" t="s">
+        <v>321</v>
       </c>
       <c r="D11" s="555" t="s">
-        <v>331</v>
+        <v>373</v>
       </c>
       <c r="E11" s="555" t="s">
-        <v>332</v>
+        <v>374</v>
       </c>
       <c r="F11" s="102"/>
-      <c r="G11" s="561" t="s">
-        <v>68</v>
-      </c>
-      <c r="H11" s="54"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="72"/>
+      <c r="G11" s="555" t="s">
+        <v>375</v>
+      </c>
+      <c r="H11" s="60"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="75"/>
       <c r="K11" s="558" t="s">
-        <v>333</v>
-      </c>
-      <c r="L11" s="72"/>
-      <c r="M11" s="72"/>
+        <v>75</v>
+      </c>
+      <c r="L11" s="75"/>
+      <c r="M11" s="75"/>
       <c r="N11" s="60"/>
       <c r="O11" s="54"/>
     </row>
     <row r="12" spans="1:15" s="318" customFormat="1" ht="21" customHeight="1">
       <c r="A12" s="53"/>
       <c r="B12" s="53"/>
-      <c r="C12" s="555" t="s">
+      <c r="C12" s="557" t="s">
         <v>322</v>
       </c>
       <c r="D12" s="555" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="E12" s="555" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="F12" s="102"/>
       <c r="G12" s="561" t="s">
         <v>68</v>
       </c>
-      <c r="H12" s="339"/>
-      <c r="I12" s="72"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
       <c r="J12" s="72"/>
       <c r="K12" s="558" t="s">
-        <v>319</v>
+        <v>333</v>
       </c>
       <c r="L12" s="72"/>
       <c r="M12" s="72"/>
@@ -37100,10 +37121,10 @@
         <v>322</v>
       </c>
       <c r="D13" s="555" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E13" s="555" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F13" s="102"/>
       <c r="G13" s="561" t="s">
@@ -37113,7 +37134,7 @@
       <c r="I13" s="72"/>
       <c r="J13" s="72"/>
       <c r="K13" s="558" t="s">
-        <v>75</v>
+        <v>319</v>
       </c>
       <c r="L13" s="72"/>
       <c r="M13" s="72"/>
@@ -37127,10 +37148,10 @@
         <v>322</v>
       </c>
       <c r="D14" s="555" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="E14" s="555" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="F14" s="102"/>
       <c r="G14" s="561" t="s">
@@ -37140,7 +37161,7 @@
       <c r="I14" s="72"/>
       <c r="J14" s="72"/>
       <c r="K14" s="558" t="s">
-        <v>333</v>
+        <v>75</v>
       </c>
       <c r="L14" s="72"/>
       <c r="M14" s="72"/>
@@ -37150,20 +37171,20 @@
     <row r="15" spans="1:15" s="318" customFormat="1" ht="21" customHeight="1">
       <c r="A15" s="53"/>
       <c r="B15" s="53"/>
-      <c r="C15" s="557" t="s">
-        <v>323</v>
+      <c r="C15" s="555" t="s">
+        <v>322</v>
       </c>
       <c r="D15" s="555" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="E15" s="555" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="F15" s="102"/>
       <c r="G15" s="561" t="s">
         <v>68</v>
       </c>
-      <c r="H15" s="54"/>
+      <c r="H15" s="339"/>
       <c r="I15" s="72"/>
       <c r="J15" s="72"/>
       <c r="K15" s="558" t="s">
@@ -37176,28 +37197,28 @@
     </row>
     <row r="16" spans="1:15" s="318" customFormat="1" ht="21" customHeight="1">
       <c r="A16" s="53"/>
-      <c r="B16" s="111"/>
-      <c r="C16" s="555" t="s">
+      <c r="B16" s="53"/>
+      <c r="C16" s="557" t="s">
         <v>323</v>
       </c>
       <c r="D16" s="555" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="E16" s="555" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="F16" s="102"/>
       <c r="G16" s="561" t="s">
         <v>68</v>
       </c>
-      <c r="H16" s="73"/>
-      <c r="I16" s="112"/>
-      <c r="J16" s="112"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="72"/>
+      <c r="J16" s="72"/>
       <c r="K16" s="558" t="s">
-        <v>319</v>
-      </c>
-      <c r="L16" s="112"/>
-      <c r="M16" s="112"/>
+        <v>333</v>
+      </c>
+      <c r="L16" s="72"/>
+      <c r="M16" s="72"/>
       <c r="N16" s="60"/>
       <c r="O16" s="54"/>
     </row>
@@ -37208,10 +37229,10 @@
         <v>323</v>
       </c>
       <c r="D17" s="555" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E17" s="555" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F17" s="102"/>
       <c r="G17" s="561" t="s">
@@ -37221,24 +37242,24 @@
       <c r="I17" s="112"/>
       <c r="J17" s="112"/>
       <c r="K17" s="558" t="s">
-        <v>75</v>
+        <v>319</v>
       </c>
       <c r="L17" s="112"/>
       <c r="M17" s="112"/>
       <c r="N17" s="60"/>
       <c r="O17" s="54"/>
     </row>
-    <row r="18" spans="1:15" s="322" customFormat="1" ht="21" customHeight="1">
-      <c r="A18" s="59"/>
+    <row r="18" spans="1:15" s="318" customFormat="1" ht="21" customHeight="1">
+      <c r="A18" s="53"/>
       <c r="B18" s="111"/>
       <c r="C18" s="555" t="s">
         <v>323</v>
       </c>
       <c r="D18" s="555" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="E18" s="555" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="F18" s="102"/>
       <c r="G18" s="561" t="s">
@@ -37248,93 +37269,93 @@
       <c r="I18" s="112"/>
       <c r="J18" s="112"/>
       <c r="K18" s="558" t="s">
-        <v>333</v>
+        <v>75</v>
       </c>
       <c r="L18" s="112"/>
       <c r="M18" s="112"/>
       <c r="N18" s="60"/>
-      <c r="O18" s="60"/>
+      <c r="O18" s="54"/>
     </row>
     <row r="19" spans="1:15" s="322" customFormat="1" ht="21" customHeight="1">
-      <c r="A19" s="53"/>
-      <c r="B19" s="53"/>
-      <c r="C19" s="557" t="s">
-        <v>324</v>
+      <c r="A19" s="59"/>
+      <c r="B19" s="111"/>
+      <c r="C19" s="555" t="s">
+        <v>323</v>
       </c>
       <c r="D19" s="555" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="E19" s="555" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="F19" s="102"/>
       <c r="G19" s="561" t="s">
         <v>68</v>
       </c>
-      <c r="H19" s="54"/>
-      <c r="I19" s="57"/>
-      <c r="J19" s="72"/>
+      <c r="H19" s="73"/>
+      <c r="I19" s="112"/>
+      <c r="J19" s="112"/>
       <c r="K19" s="558" t="s">
         <v>333</v>
       </c>
-      <c r="L19" s="72"/>
-      <c r="M19" s="72"/>
+      <c r="L19" s="112"/>
+      <c r="M19" s="112"/>
       <c r="N19" s="60"/>
       <c r="O19" s="60"/>
     </row>
     <row r="20" spans="1:15" s="322" customFormat="1" ht="21" customHeight="1">
-      <c r="A20" s="59"/>
-      <c r="B20" s="59"/>
-      <c r="C20" s="555" t="s">
+      <c r="A20" s="53"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="557" t="s">
         <v>324</v>
       </c>
       <c r="D20" s="555" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="E20" s="555" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="F20" s="102"/>
       <c r="G20" s="561" t="s">
         <v>68</v>
       </c>
-      <c r="H20" s="60"/>
+      <c r="H20" s="54"/>
       <c r="I20" s="57"/>
-      <c r="J20" s="75"/>
+      <c r="J20" s="72"/>
       <c r="K20" s="558" t="s">
-        <v>319</v>
-      </c>
-      <c r="L20" s="75"/>
-      <c r="M20" s="75"/>
+        <v>333</v>
+      </c>
+      <c r="L20" s="72"/>
+      <c r="M20" s="72"/>
       <c r="N20" s="60"/>
       <c r="O20" s="60"/>
     </row>
-    <row r="21" spans="1:15" s="318" customFormat="1" ht="21" customHeight="1">
-      <c r="A21" s="53"/>
-      <c r="B21" s="53"/>
+    <row r="21" spans="1:15" s="322" customFormat="1" ht="21" customHeight="1">
+      <c r="A21" s="59"/>
+      <c r="B21" s="59"/>
       <c r="C21" s="555" t="s">
         <v>324</v>
       </c>
       <c r="D21" s="555" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E21" s="555" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F21" s="102"/>
       <c r="G21" s="561" t="s">
         <v>68</v>
       </c>
-      <c r="H21" s="54"/>
-      <c r="I21" s="54"/>
-      <c r="J21" s="72"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="75"/>
       <c r="K21" s="558" t="s">
-        <v>75</v>
-      </c>
-      <c r="L21" s="72"/>
-      <c r="M21" s="72"/>
+        <v>319</v>
+      </c>
+      <c r="L21" s="75"/>
+      <c r="M21" s="75"/>
       <c r="N21" s="60"/>
-      <c r="O21" s="54"/>
+      <c r="O21" s="60"/>
     </row>
     <row r="22" spans="1:15" s="318" customFormat="1" ht="21" customHeight="1">
       <c r="A22" s="53"/>
@@ -37343,10 +37364,10 @@
         <v>324</v>
       </c>
       <c r="D22" s="555" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="E22" s="555" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="F22" s="102"/>
       <c r="G22" s="561" t="s">
@@ -37356,7 +37377,7 @@
       <c r="I22" s="54"/>
       <c r="J22" s="72"/>
       <c r="K22" s="558" t="s">
-        <v>333</v>
+        <v>75</v>
       </c>
       <c r="L22" s="72"/>
       <c r="M22" s="72"/>
@@ -37366,14 +37387,14 @@
     <row r="23" spans="1:15" s="318" customFormat="1" ht="21" customHeight="1">
       <c r="A23" s="53"/>
       <c r="B23" s="53"/>
-      <c r="C23" s="557" t="s">
-        <v>325</v>
+      <c r="C23" s="555" t="s">
+        <v>324</v>
       </c>
       <c r="D23" s="555" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="E23" s="555" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="F23" s="102"/>
       <c r="G23" s="561" t="s">
@@ -37393,14 +37414,14 @@
     <row r="24" spans="1:15" s="318" customFormat="1" ht="21" customHeight="1">
       <c r="A24" s="53"/>
       <c r="B24" s="53"/>
-      <c r="C24" s="555" t="s">
+      <c r="C24" s="557" t="s">
         <v>325</v>
       </c>
       <c r="D24" s="555" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="E24" s="555" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="F24" s="102"/>
       <c r="G24" s="561" t="s">
@@ -37410,7 +37431,7 @@
       <c r="I24" s="54"/>
       <c r="J24" s="72"/>
       <c r="K24" s="558" t="s">
-        <v>319</v>
+        <v>333</v>
       </c>
       <c r="L24" s="72"/>
       <c r="M24" s="72"/>
@@ -37419,77 +37440,84 @@
     </row>
     <row r="25" spans="1:15" s="318" customFormat="1" ht="21" customHeight="1">
       <c r="A25" s="53"/>
-      <c r="B25" s="111"/>
+      <c r="B25" s="53"/>
       <c r="C25" s="555" t="s">
         <v>325</v>
       </c>
       <c r="D25" s="555" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E25" s="555" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F25" s="102"/>
       <c r="G25" s="561" t="s">
         <v>68</v>
       </c>
-      <c r="H25" s="73"/>
-      <c r="I25" s="112"/>
-      <c r="J25" s="112"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="72"/>
       <c r="K25" s="558" t="s">
-        <v>75</v>
-      </c>
-      <c r="L25" s="112"/>
-      <c r="M25" s="112"/>
+        <v>319</v>
+      </c>
+      <c r="L25" s="72"/>
+      <c r="M25" s="72"/>
       <c r="N25" s="60"/>
       <c r="O25" s="54"/>
     </row>
     <row r="26" spans="1:15" s="318" customFormat="1" ht="21" customHeight="1">
       <c r="A26" s="53"/>
-      <c r="B26" s="53"/>
+      <c r="B26" s="111"/>
       <c r="C26" s="555" t="s">
         <v>325</v>
       </c>
       <c r="D26" s="555" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="E26" s="555" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="F26" s="102"/>
       <c r="G26" s="561" t="s">
         <v>68</v>
       </c>
-      <c r="H26" s="54"/>
-      <c r="I26" s="54"/>
-      <c r="J26" s="72"/>
+      <c r="H26" s="73"/>
+      <c r="I26" s="112"/>
+      <c r="J26" s="112"/>
       <c r="K26" s="558" t="s">
-        <v>333</v>
-      </c>
-      <c r="L26" s="72"/>
-      <c r="M26" s="72"/>
+        <v>75</v>
+      </c>
+      <c r="L26" s="112"/>
+      <c r="M26" s="112"/>
       <c r="N26" s="60"/>
       <c r="O26" s="54"/>
     </row>
-    <row r="27" spans="1:15" s="555" customFormat="1" ht="21" customHeight="1">
+    <row r="27" spans="1:15" s="318" customFormat="1" ht="21" customHeight="1">
+      <c r="A27" s="53"/>
+      <c r="B27" s="53"/>
       <c r="C27" s="555" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="D27" s="555" t="s">
-        <v>373</v>
+        <v>339</v>
       </c>
       <c r="E27" s="555" t="s">
-        <v>374</v>
-      </c>
-      <c r="G27" s="555" t="s">
-        <v>375</v>
-      </c>
-      <c r="K27" s="555" t="s">
-        <v>376</v>
-      </c>
-      <c r="N27" s="555" t="s">
-        <v>377</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="F27" s="102"/>
+      <c r="G27" s="561" t="s">
+        <v>68</v>
+      </c>
+      <c r="H27" s="54"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="72"/>
+      <c r="K27" s="558" t="s">
+        <v>333</v>
+      </c>
+      <c r="L27" s="72"/>
+      <c r="M27" s="72"/>
+      <c r="N27" s="60"/>
+      <c r="O27" s="54"/>
     </row>
     <row r="28" spans="1:15" s="318" customFormat="1" ht="21" customHeight="1">
       <c r="A28" s="53"/>
@@ -42106,7 +42134,7 @@
   <dimension ref="A1:T90"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E90" sqref="A4:XFD90"/>
+      <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1"/>
@@ -44191,7 +44219,7 @@
   <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A44" sqref="A39:XFD44"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
@@ -44691,7 +44719,7 @@
   <dimension ref="A1:O253"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A253" sqref="A4:XFD253"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
@@ -49076,7 +49104,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1"/>

--- a/src/main/resources/uk/gov/hmcts/ccd/test_definitions/excel/Access_Control_Definition.xlsx
+++ b/src/main/resources/uk/gov/hmcts/ccd/test_definitions/excel/Access_Control_Definition.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiranyenigala/Projects/CCD/ccd-test-definitions/src/main/resources/uk/gov/hmcts/ccd/test_definitions/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4BC8447-5A2D-954C-BCBD-EE515DC082BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E016613-F6CE-D849-ACFE-DB8960541C8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="25960" firstSheet="9" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="25960" firstSheet="9" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jurisdiction" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">CaseEvent!$A$19:$V$19</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">CaseField!$A$3:$O$116</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">CaseField!$A$3:$O$117</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -2127,7 +2127,7 @@
     <xf numFmtId="0" fontId="62" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="588">
+  <cellXfs count="587">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -3679,9 +3679,6 @@
     </xf>
     <xf numFmtId="0" fontId="71" fillId="21" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="71" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="16">
     <cellStyle name="Explanatory Text" xfId="14" builtinId="53"/>
@@ -12615,7 +12612,7 @@
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{BF60EFC9-06B0-AF4B-BF05-86C7AFDAB66D}" name="Table19" displayName="Table19" ref="A3:F219" totalsRowShown="0" headerRowDxfId="51" dataDxfId="49" headerRowBorderDxfId="50" tableBorderDxfId="48" totalsRowBorderDxfId="47">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{BF60EFC9-06B0-AF4B-BF05-86C7AFDAB66D}" name="Table19" displayName="Table19" ref="A3:F217" totalsRowShown="0" headerRowDxfId="51" dataDxfId="49" headerRowBorderDxfId="50" tableBorderDxfId="48" totalsRowBorderDxfId="47">
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{72C60802-2E7D-F542-8A1C-F0E147FA4DCE}" name="LiveFrom" dataDxfId="46"/>
     <tableColumn id="2" xr3:uid="{FC67D30A-2836-1743-B4FA-D61DEE5FAF0A}" name="LiveTo" dataDxfId="45"/>
@@ -12706,7 +12703,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B7853914-D748-214F-AB78-CCB4D9972099}" name="Table1" displayName="Table1" ref="A3:O177" totalsRowShown="0" headerRowDxfId="323" dataDxfId="321" headerRowBorderDxfId="322" tableBorderDxfId="320" totalsRowBorderDxfId="319">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B7853914-D748-214F-AB78-CCB4D9972099}" name="Table1" displayName="Table1" ref="A3:O178" totalsRowShown="0" headerRowDxfId="323" dataDxfId="321" headerRowBorderDxfId="322" tableBorderDxfId="320" totalsRowBorderDxfId="319">
   <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{E6FCE3E8-E7C3-7C45-8832-C5E6EBCF5AD5}" name="LiveFrom" dataDxfId="318"/>
     <tableColumn id="2" xr3:uid="{CCAF30FC-5E10-F84C-B526-0674ECA9972F}" name="LiveTo" dataDxfId="317"/>
@@ -13904,7 +13901,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1"/>
@@ -14233,7 +14230,7 @@
   <dimension ref="A1:CR95"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="L9" sqref="J9:L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1"/>
@@ -16835,7 +16832,7 @@
   <dimension ref="A1:W21"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="A10" sqref="A10:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1"/>
@@ -17794,8 +17791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:T293"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A34" zoomScale="95" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="95" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1"/>
@@ -18385,7 +18382,7 @@
       <c r="P16" s="54"/>
       <c r="R16" s="56"/>
     </row>
-    <row r="17" spans="1:20" s="587" customFormat="1" ht="20" customHeight="1">
+    <row r="17" spans="1:18" s="72" customFormat="1" ht="20" customHeight="1">
       <c r="A17" s="53">
         <v>42736</v>
       </c>
@@ -18396,36 +18393,29 @@
       <c r="D17" s="555" t="s">
         <v>341</v>
       </c>
-      <c r="E17" s="555" t="s">
+      <c r="E17" s="57" t="s">
         <v>373</v>
       </c>
       <c r="F17" s="560">
         <v>5</v>
       </c>
-      <c r="G17" s="57" t="s">
+      <c r="G17" s="54" t="s">
         <v>268</v>
       </c>
-      <c r="H17" s="57" t="s">
+      <c r="H17" s="555" t="s">
         <v>354</v>
       </c>
       <c r="I17" s="555" t="s">
-        <v>374</v>
+        <v>354</v>
       </c>
       <c r="J17" s="71">
         <v>1</v>
       </c>
-      <c r="K17" s="72"/>
-      <c r="L17" s="72"/>
-      <c r="M17" s="61"/>
-      <c r="N17" s="72"/>
-      <c r="O17" s="72"/>
+      <c r="M17" s="104"/>
       <c r="P17" s="54"/>
-      <c r="Q17" s="72"/>
       <c r="R17" s="56"/>
-      <c r="S17" s="72"/>
-      <c r="T17" s="72"/>
-    </row>
-    <row r="18" spans="1:20" s="72" customFormat="1" ht="20" customHeight="1">
+    </row>
+    <row r="18" spans="1:18" s="72" customFormat="1" ht="20" customHeight="1">
       <c r="A18" s="53">
         <v>42736</v>
       </c>
@@ -18456,7 +18446,7 @@
       </c>
       <c r="P18" s="54"/>
     </row>
-    <row r="19" spans="1:20" s="72" customFormat="1" ht="20" customHeight="1">
+    <row r="19" spans="1:18" s="72" customFormat="1" ht="20" customHeight="1">
       <c r="A19" s="53">
         <v>42736</v>
       </c>
@@ -18489,7 +18479,7 @@
       <c r="P19" s="54"/>
       <c r="R19" s="56"/>
     </row>
-    <row r="20" spans="1:20" s="72" customFormat="1" ht="18">
+    <row r="20" spans="1:18" s="72" customFormat="1" ht="18">
       <c r="A20" s="53">
         <v>42736</v>
       </c>
@@ -18522,7 +18512,7 @@
       <c r="P20" s="54"/>
       <c r="R20" s="56"/>
     </row>
-    <row r="21" spans="1:20" s="587" customFormat="1" ht="20" customHeight="1">
+    <row r="21" spans="1:18" s="72" customFormat="1" ht="18">
       <c r="A21" s="53">
         <v>42736</v>
       </c>
@@ -18533,36 +18523,29 @@
       <c r="D21" s="555" t="s">
         <v>344</v>
       </c>
-      <c r="E21" s="555" t="s">
-        <v>373</v>
+      <c r="E21" s="57" t="s">
+        <v>339</v>
       </c>
       <c r="F21" s="560">
-        <v>5</v>
-      </c>
-      <c r="G21" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="54" t="s">
         <v>268</v>
       </c>
-      <c r="H21" s="57" t="s">
+      <c r="H21" s="555" t="s">
         <v>354</v>
       </c>
       <c r="I21" s="555" t="s">
-        <v>374</v>
+        <v>354</v>
       </c>
       <c r="J21" s="71">
         <v>1</v>
       </c>
-      <c r="K21" s="72"/>
-      <c r="L21" s="72"/>
-      <c r="M21" s="61"/>
-      <c r="N21" s="72"/>
-      <c r="O21" s="72"/>
+      <c r="M21" s="104"/>
       <c r="P21" s="54"/>
-      <c r="Q21" s="72"/>
       <c r="R21" s="56"/>
-      <c r="S21" s="72"/>
-      <c r="T21" s="72"/>
-    </row>
-    <row r="22" spans="1:20" s="72" customFormat="1" ht="18">
+    </row>
+    <row r="22" spans="1:18" s="72" customFormat="1" ht="18">
       <c r="A22" s="53">
         <v>42736</v>
       </c>
@@ -18574,10 +18557,10 @@
         <v>344</v>
       </c>
       <c r="E22" s="57" t="s">
-        <v>339</v>
+        <v>373</v>
       </c>
       <c r="F22" s="560">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G22" s="54" t="s">
         <v>268</v>
@@ -18595,7 +18578,7 @@
       <c r="P22" s="54"/>
       <c r="R22" s="56"/>
     </row>
-    <row r="23" spans="1:20" s="72" customFormat="1" ht="18">
+    <row r="23" spans="1:18" s="72" customFormat="1" ht="18">
       <c r="A23" s="53">
         <v>42736</v>
       </c>
@@ -18626,7 +18609,7 @@
       </c>
       <c r="P23" s="54"/>
     </row>
-    <row r="24" spans="1:20" s="72" customFormat="1" ht="18">
+    <row r="24" spans="1:18" s="72" customFormat="1" ht="18">
       <c r="A24" s="53">
         <v>42736</v>
       </c>
@@ -18659,7 +18642,7 @@
       <c r="P24" s="54"/>
       <c r="R24" s="56"/>
     </row>
-    <row r="25" spans="1:20" s="72" customFormat="1" ht="18">
+    <row r="25" spans="1:18" s="72" customFormat="1" ht="18">
       <c r="A25" s="53">
         <v>42736</v>
       </c>
@@ -18692,7 +18675,7 @@
       <c r="P25" s="54"/>
       <c r="R25" s="56"/>
     </row>
-    <row r="26" spans="1:20" s="72" customFormat="1" ht="20" customHeight="1">
+    <row r="26" spans="1:18" s="72" customFormat="1" ht="20" customHeight="1">
       <c r="A26" s="53">
         <v>42736</v>
       </c>
@@ -18725,7 +18708,7 @@
       <c r="P26" s="54"/>
       <c r="R26" s="56"/>
     </row>
-    <row r="27" spans="1:20" s="587" customFormat="1" ht="20" customHeight="1">
+    <row r="27" spans="1:18" s="72" customFormat="1" ht="20" customHeight="1">
       <c r="A27" s="53">
         <v>42736</v>
       </c>
@@ -18736,36 +18719,29 @@
       <c r="D27" s="555" t="s">
         <v>347</v>
       </c>
-      <c r="E27" s="555" t="s">
+      <c r="E27" s="57" t="s">
         <v>373</v>
       </c>
       <c r="F27" s="560">
         <v>5</v>
       </c>
-      <c r="G27" s="57" t="s">
+      <c r="G27" s="54" t="s">
         <v>268</v>
       </c>
-      <c r="H27" s="57" t="s">
+      <c r="H27" s="555" t="s">
         <v>354</v>
       </c>
       <c r="I27" s="555" t="s">
-        <v>374</v>
+        <v>354</v>
       </c>
       <c r="J27" s="71">
         <v>1</v>
       </c>
-      <c r="K27" s="72"/>
-      <c r="L27" s="72"/>
-      <c r="M27" s="61"/>
-      <c r="N27" s="72"/>
-      <c r="O27" s="72"/>
+      <c r="M27" s="104"/>
       <c r="P27" s="54"/>
-      <c r="Q27" s="72"/>
       <c r="R27" s="56"/>
-      <c r="S27" s="72"/>
-      <c r="T27" s="72"/>
-    </row>
-    <row r="28" spans="1:20" s="72" customFormat="1" ht="19" customHeight="1">
+    </row>
+    <row r="28" spans="1:18" s="72" customFormat="1" ht="19" customHeight="1">
       <c r="A28" s="53">
         <v>42736</v>
       </c>
@@ -18796,7 +18772,7 @@
       </c>
       <c r="P28" s="54"/>
     </row>
-    <row r="29" spans="1:20" s="72" customFormat="1" ht="20" customHeight="1">
+    <row r="29" spans="1:18" s="72" customFormat="1" ht="20" customHeight="1">
       <c r="A29" s="53">
         <v>42736</v>
       </c>
@@ -18829,7 +18805,7 @@
       <c r="P29" s="54"/>
       <c r="R29" s="56"/>
     </row>
-    <row r="30" spans="1:20" s="72" customFormat="1" ht="20" customHeight="1">
+    <row r="30" spans="1:18" s="72" customFormat="1" ht="20" customHeight="1">
       <c r="A30" s="53">
         <v>42736</v>
       </c>
@@ -18862,7 +18838,7 @@
       <c r="P30" s="54"/>
       <c r="R30" s="56"/>
     </row>
-    <row r="31" spans="1:20" s="72" customFormat="1" ht="22" customHeight="1">
+    <row r="31" spans="1:18" s="72" customFormat="1" ht="22" customHeight="1">
       <c r="A31" s="53">
         <v>42736</v>
       </c>
@@ -18895,7 +18871,7 @@
       <c r="P31" s="54"/>
       <c r="R31" s="56"/>
     </row>
-    <row r="32" spans="1:20" s="72" customFormat="1" ht="20" customHeight="1">
+    <row r="32" spans="1:18" s="72" customFormat="1" ht="20" customHeight="1">
       <c r="A32" s="53">
         <v>42736</v>
       </c>
@@ -24499,7 +24475,7 @@
   <dimension ref="A1:H68"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="A4" sqref="A4:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1"/>
@@ -28815,7 +28791,7 @@
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C8" sqref="C8:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1"/>
@@ -29304,10 +29280,10 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A1:G268"/>
+  <dimension ref="A1:G266"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A5" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView showGridLines="0" topLeftCell="A56" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1"/>
@@ -29747,7 +29723,7 @@
         <v>321</v>
       </c>
       <c r="D23" s="555" t="s">
-        <v>373</v>
+        <v>334</v>
       </c>
       <c r="E23" s="555" t="s">
         <v>358</v>
@@ -29766,7 +29742,7 @@
         <v>321</v>
       </c>
       <c r="D24" s="555" t="s">
-        <v>373</v>
+        <v>336</v>
       </c>
       <c r="E24" s="555" t="s">
         <v>363</v>
@@ -29785,10 +29761,10 @@
         <v>321</v>
       </c>
       <c r="D25" s="555" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="E25" s="555" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F25" s="555" t="s">
         <v>106</v>
@@ -29807,7 +29783,7 @@
         <v>336</v>
       </c>
       <c r="E26" s="555" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F26" s="555" t="s">
         <v>106</v>
@@ -29826,7 +29802,7 @@
         <v>336</v>
       </c>
       <c r="E27" s="555" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F27" s="555" t="s">
         <v>106</v>
@@ -29842,53 +29818,53 @@
         <v>321</v>
       </c>
       <c r="D28" s="555" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="E28" s="555" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F28" s="555" t="s">
         <v>106</v>
       </c>
       <c r="G28" s="555"/>
     </row>
-    <row r="29" spans="1:7" s="318" customFormat="1" ht="20" customHeight="1">
-      <c r="A29" s="52">
+    <row r="29" spans="1:7" s="573" customFormat="1" ht="20" customHeight="1">
+      <c r="A29" s="570">
         <v>42736</v>
       </c>
-      <c r="B29" s="53"/>
-      <c r="C29" s="555" t="s">
-        <v>321</v>
-      </c>
-      <c r="D29" s="555" t="s">
-        <v>336</v>
-      </c>
-      <c r="E29" s="555" t="s">
-        <v>358</v>
-      </c>
-      <c r="F29" s="555" t="s">
+      <c r="B29" s="571"/>
+      <c r="C29" s="572" t="s">
+        <v>322</v>
+      </c>
+      <c r="D29" s="572" t="s">
+        <v>331</v>
+      </c>
+      <c r="E29" s="572" t="s">
+        <v>363</v>
+      </c>
+      <c r="F29" s="572" t="s">
         <v>106</v>
       </c>
-      <c r="G29" s="555"/>
-    </row>
-    <row r="30" spans="1:7" s="318" customFormat="1" ht="20" customHeight="1">
-      <c r="A30" s="52">
+      <c r="G29" s="572"/>
+    </row>
+    <row r="30" spans="1:7" s="573" customFormat="1" ht="20" customHeight="1">
+      <c r="A30" s="570">
         <v>42736</v>
       </c>
-      <c r="B30" s="53"/>
-      <c r="C30" s="555" t="s">
-        <v>321</v>
-      </c>
-      <c r="D30" s="555" t="s">
-        <v>339</v>
-      </c>
-      <c r="E30" s="555" t="s">
-        <v>358</v>
-      </c>
-      <c r="F30" s="555" t="s">
+      <c r="B30" s="571"/>
+      <c r="C30" s="572" t="s">
+        <v>322</v>
+      </c>
+      <c r="D30" s="572" t="s">
+        <v>331</v>
+      </c>
+      <c r="E30" s="572" t="s">
+        <v>359</v>
+      </c>
+      <c r="F30" s="572" t="s">
         <v>106</v>
       </c>
-      <c r="G30" s="555"/>
+      <c r="G30" s="572"/>
     </row>
     <row r="31" spans="1:7" s="573" customFormat="1" ht="20" customHeight="1">
       <c r="A31" s="570">
@@ -29902,7 +29878,7 @@
         <v>331</v>
       </c>
       <c r="E31" s="572" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F31" s="572" t="s">
         <v>106</v>
@@ -29921,7 +29897,7 @@
         <v>331</v>
       </c>
       <c r="E32" s="572" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F32" s="572" t="s">
         <v>106</v>
@@ -29937,10 +29913,10 @@
         <v>322</v>
       </c>
       <c r="D33" s="572" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="E33" s="572" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="F33" s="572" t="s">
         <v>106</v>
@@ -29956,10 +29932,10 @@
         <v>322</v>
       </c>
       <c r="D34" s="572" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="E34" s="572" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F34" s="572" t="s">
         <v>106</v>
@@ -29978,7 +29954,7 @@
         <v>334</v>
       </c>
       <c r="E35" s="572" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F35" s="572" t="s">
         <v>106</v>
@@ -29997,7 +29973,7 @@
         <v>334</v>
       </c>
       <c r="E36" s="572" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F36" s="572" t="s">
         <v>106</v>
@@ -30013,10 +29989,10 @@
         <v>322</v>
       </c>
       <c r="D37" s="572" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E37" s="572" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="F37" s="572" t="s">
         <v>106</v>
@@ -30032,10 +30008,10 @@
         <v>322</v>
       </c>
       <c r="D38" s="572" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E38" s="572" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F38" s="572" t="s">
         <v>106</v>
@@ -30054,7 +30030,7 @@
         <v>336</v>
       </c>
       <c r="E39" s="572" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F39" s="572" t="s">
         <v>106</v>
@@ -30073,7 +30049,7 @@
         <v>336</v>
       </c>
       <c r="E40" s="572" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F40" s="572" t="s">
         <v>106</v>
@@ -30089,53 +30065,53 @@
         <v>322</v>
       </c>
       <c r="D41" s="572" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="E41" s="572" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F41" s="572" t="s">
         <v>106</v>
       </c>
       <c r="G41" s="572"/>
     </row>
-    <row r="42" spans="1:7" s="573" customFormat="1" ht="20" customHeight="1">
-      <c r="A42" s="570">
+    <row r="42" spans="1:7" s="318" customFormat="1" ht="20" customHeight="1">
+      <c r="A42" s="52">
         <v>42736</v>
       </c>
-      <c r="B42" s="571"/>
-      <c r="C42" s="572" t="s">
-        <v>322</v>
-      </c>
-      <c r="D42" s="572" t="s">
-        <v>336</v>
-      </c>
-      <c r="E42" s="572" t="s">
-        <v>358</v>
-      </c>
-      <c r="F42" s="572" t="s">
+      <c r="B42" s="53"/>
+      <c r="C42" s="555" t="s">
+        <v>323</v>
+      </c>
+      <c r="D42" s="555" t="s">
+        <v>331</v>
+      </c>
+      <c r="E42" s="555" t="s">
+        <v>363</v>
+      </c>
+      <c r="F42" s="555" t="s">
         <v>106</v>
       </c>
-      <c r="G42" s="572"/>
-    </row>
-    <row r="43" spans="1:7" s="573" customFormat="1" ht="20" customHeight="1">
-      <c r="A43" s="570">
+      <c r="G42" s="555"/>
+    </row>
+    <row r="43" spans="1:7" s="318" customFormat="1" ht="20" customHeight="1">
+      <c r="A43" s="52">
         <v>42736</v>
       </c>
-      <c r="B43" s="571"/>
-      <c r="C43" s="572" t="s">
-        <v>322</v>
-      </c>
-      <c r="D43" s="572" t="s">
-        <v>339</v>
-      </c>
-      <c r="E43" s="572" t="s">
-        <v>358</v>
-      </c>
-      <c r="F43" s="572" t="s">
+      <c r="B43" s="53"/>
+      <c r="C43" s="555" t="s">
+        <v>323</v>
+      </c>
+      <c r="D43" s="555" t="s">
+        <v>331</v>
+      </c>
+      <c r="E43" s="555" t="s">
+        <v>359</v>
+      </c>
+      <c r="F43" s="555" t="s">
         <v>106</v>
       </c>
-      <c r="G43" s="572"/>
+      <c r="G43" s="555"/>
     </row>
     <row r="44" spans="1:7" s="318" customFormat="1" ht="20" customHeight="1">
       <c r="A44" s="52">
@@ -30149,7 +30125,7 @@
         <v>331</v>
       </c>
       <c r="E44" s="555" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F44" s="555" t="s">
         <v>106</v>
@@ -30168,7 +30144,7 @@
         <v>331</v>
       </c>
       <c r="E45" s="555" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F45" s="555" t="s">
         <v>106</v>
@@ -30184,10 +30160,10 @@
         <v>323</v>
       </c>
       <c r="D46" s="555" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="E46" s="555" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="F46" s="555" t="s">
         <v>106</v>
@@ -30203,10 +30179,10 @@
         <v>323</v>
       </c>
       <c r="D47" s="555" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="E47" s="555" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F47" s="555" t="s">
         <v>106</v>
@@ -30225,7 +30201,7 @@
         <v>334</v>
       </c>
       <c r="E48" s="555" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F48" s="555" t="s">
         <v>106</v>
@@ -30244,7 +30220,7 @@
         <v>334</v>
       </c>
       <c r="E49" s="555" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F49" s="555" t="s">
         <v>106</v>
@@ -30260,10 +30236,10 @@
         <v>323</v>
       </c>
       <c r="D50" s="555" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E50" s="555" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="F50" s="555" t="s">
         <v>106</v>
@@ -30279,10 +30255,10 @@
         <v>323</v>
       </c>
       <c r="D51" s="555" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E51" s="555" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F51" s="555" t="s">
         <v>106</v>
@@ -30301,7 +30277,7 @@
         <v>336</v>
       </c>
       <c r="E52" s="555" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F52" s="555" t="s">
         <v>106</v>
@@ -30320,7 +30296,7 @@
         <v>336</v>
       </c>
       <c r="E53" s="555" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F53" s="555" t="s">
         <v>106</v>
@@ -30336,53 +30312,53 @@
         <v>323</v>
       </c>
       <c r="D54" s="555" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="E54" s="555" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F54" s="555" t="s">
         <v>106</v>
       </c>
       <c r="G54" s="555"/>
     </row>
-    <row r="55" spans="1:7" s="318" customFormat="1" ht="20" customHeight="1">
-      <c r="A55" s="52">
+    <row r="55" spans="1:7" s="573" customFormat="1" ht="20" customHeight="1">
+      <c r="A55" s="570">
         <v>42736</v>
       </c>
-      <c r="B55" s="53"/>
-      <c r="C55" s="555" t="s">
-        <v>323</v>
-      </c>
-      <c r="D55" s="555" t="s">
-        <v>336</v>
-      </c>
-      <c r="E55" s="555" t="s">
-        <v>358</v>
-      </c>
-      <c r="F55" s="555" t="s">
+      <c r="B55" s="571"/>
+      <c r="C55" s="572" t="s">
+        <v>324</v>
+      </c>
+      <c r="D55" s="572" t="s">
+        <v>331</v>
+      </c>
+      <c r="E55" s="572" t="s">
+        <v>363</v>
+      </c>
+      <c r="F55" s="572" t="s">
         <v>106</v>
       </c>
-      <c r="G55" s="555"/>
-    </row>
-    <row r="56" spans="1:7" s="318" customFormat="1" ht="20" customHeight="1">
-      <c r="A56" s="52">
+      <c r="G55" s="572"/>
+    </row>
+    <row r="56" spans="1:7" s="573" customFormat="1" ht="20" customHeight="1">
+      <c r="A56" s="570">
         <v>42736</v>
       </c>
-      <c r="B56" s="53"/>
-      <c r="C56" s="555" t="s">
-        <v>323</v>
-      </c>
-      <c r="D56" s="555" t="s">
-        <v>339</v>
-      </c>
-      <c r="E56" s="555" t="s">
-        <v>358</v>
-      </c>
-      <c r="F56" s="555" t="s">
+      <c r="B56" s="571"/>
+      <c r="C56" s="572" t="s">
+        <v>324</v>
+      </c>
+      <c r="D56" s="572" t="s">
+        <v>331</v>
+      </c>
+      <c r="E56" s="572" t="s">
+        <v>359</v>
+      </c>
+      <c r="F56" s="572" t="s">
         <v>106</v>
       </c>
-      <c r="G56" s="555"/>
+      <c r="G56" s="572"/>
     </row>
     <row r="57" spans="1:7" s="573" customFormat="1" ht="20" customHeight="1">
       <c r="A57" s="570">
@@ -30396,7 +30372,7 @@
         <v>331</v>
       </c>
       <c r="E57" s="572" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F57" s="572" t="s">
         <v>106</v>
@@ -30415,7 +30391,7 @@
         <v>331</v>
       </c>
       <c r="E58" s="572" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F58" s="572" t="s">
         <v>106</v>
@@ -30431,10 +30407,10 @@
         <v>324</v>
       </c>
       <c r="D59" s="572" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="E59" s="572" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="F59" s="572" t="s">
         <v>106</v>
@@ -30450,10 +30426,10 @@
         <v>324</v>
       </c>
       <c r="D60" s="572" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="E60" s="572" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F60" s="572" t="s">
         <v>106</v>
@@ -30472,7 +30448,7 @@
         <v>334</v>
       </c>
       <c r="E61" s="572" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F61" s="572" t="s">
         <v>106</v>
@@ -30491,7 +30467,7 @@
         <v>334</v>
       </c>
       <c r="E62" s="572" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F62" s="572" t="s">
         <v>106</v>
@@ -30507,10 +30483,10 @@
         <v>324</v>
       </c>
       <c r="D63" s="572" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E63" s="572" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="F63" s="572" t="s">
         <v>106</v>
@@ -30526,10 +30502,10 @@
         <v>324</v>
       </c>
       <c r="D64" s="572" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E64" s="572" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F64" s="572" t="s">
         <v>106</v>
@@ -30548,7 +30524,7 @@
         <v>336</v>
       </c>
       <c r="E65" s="572" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F65" s="572" t="s">
         <v>106</v>
@@ -30567,7 +30543,7 @@
         <v>336</v>
       </c>
       <c r="E66" s="572" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F66" s="572" t="s">
         <v>106</v>
@@ -30583,53 +30559,53 @@
         <v>324</v>
       </c>
       <c r="D67" s="572" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="E67" s="572" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F67" s="572" t="s">
         <v>106</v>
       </c>
       <c r="G67" s="572"/>
     </row>
-    <row r="68" spans="1:7" s="573" customFormat="1" ht="20" customHeight="1">
-      <c r="A68" s="570">
+    <row r="68" spans="1:7" s="318" customFormat="1" ht="20" customHeight="1">
+      <c r="A68" s="52">
         <v>42736</v>
       </c>
-      <c r="B68" s="571"/>
-      <c r="C68" s="572" t="s">
-        <v>324</v>
-      </c>
-      <c r="D68" s="572" t="s">
-        <v>336</v>
-      </c>
-      <c r="E68" s="572" t="s">
-        <v>358</v>
-      </c>
-      <c r="F68" s="572" t="s">
+      <c r="B68" s="53"/>
+      <c r="C68" s="555" t="s">
+        <v>325</v>
+      </c>
+      <c r="D68" s="555" t="s">
+        <v>331</v>
+      </c>
+      <c r="E68" s="555" t="s">
+        <v>363</v>
+      </c>
+      <c r="F68" s="555" t="s">
         <v>106</v>
       </c>
-      <c r="G68" s="572"/>
-    </row>
-    <row r="69" spans="1:7" s="573" customFormat="1" ht="20" customHeight="1">
-      <c r="A69" s="570">
+      <c r="G68" s="555"/>
+    </row>
+    <row r="69" spans="1:7" s="318" customFormat="1" ht="20" customHeight="1">
+      <c r="A69" s="52">
         <v>42736</v>
       </c>
-      <c r="B69" s="571"/>
-      <c r="C69" s="572" t="s">
-        <v>324</v>
-      </c>
-      <c r="D69" s="572" t="s">
-        <v>339</v>
-      </c>
-      <c r="E69" s="572" t="s">
-        <v>358</v>
-      </c>
-      <c r="F69" s="572" t="s">
+      <c r="B69" s="53"/>
+      <c r="C69" s="555" t="s">
+        <v>325</v>
+      </c>
+      <c r="D69" s="555" t="s">
+        <v>331</v>
+      </c>
+      <c r="E69" s="555" t="s">
+        <v>359</v>
+      </c>
+      <c r="F69" s="555" t="s">
         <v>106</v>
       </c>
-      <c r="G69" s="572"/>
+      <c r="G69" s="555"/>
     </row>
     <row r="70" spans="1:7" s="318" customFormat="1" ht="20" customHeight="1">
       <c r="A70" s="52">
@@ -30643,7 +30619,7 @@
         <v>331</v>
       </c>
       <c r="E70" s="555" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F70" s="555" t="s">
         <v>106</v>
@@ -30662,148 +30638,148 @@
         <v>331</v>
       </c>
       <c r="E71" s="555" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F71" s="555" t="s">
         <v>106</v>
       </c>
       <c r="G71" s="555"/>
     </row>
-    <row r="72" spans="1:7" s="318" customFormat="1" ht="20" customHeight="1">
-      <c r="A72" s="52">
+    <row r="72" spans="1:7" customFormat="1" ht="18">
+      <c r="A72" s="520">
         <v>42736</v>
       </c>
-      <c r="B72" s="53"/>
-      <c r="C72" s="555" t="s">
+      <c r="B72" s="520"/>
+      <c r="C72" s="565" t="s">
         <v>325</v>
       </c>
-      <c r="D72" s="555" t="s">
-        <v>331</v>
-      </c>
-      <c r="E72" s="555" t="s">
-        <v>360</v>
-      </c>
-      <c r="F72" s="555" t="s">
+      <c r="D72" s="565" t="s">
+        <v>334</v>
+      </c>
+      <c r="E72" s="565" t="s">
+        <v>357</v>
+      </c>
+      <c r="F72" s="566" t="s">
         <v>106</v>
       </c>
-      <c r="G72" s="555"/>
-    </row>
-    <row r="73" spans="1:7" s="318" customFormat="1" ht="20" customHeight="1">
-      <c r="A73" s="52">
+    </row>
+    <row r="73" spans="1:7" customFormat="1" ht="18">
+      <c r="A73" s="520">
         <v>42736</v>
       </c>
-      <c r="B73" s="53"/>
-      <c r="C73" s="555" t="s">
+      <c r="B73" s="520"/>
+      <c r="C73" s="565" t="s">
         <v>325</v>
       </c>
-      <c r="D73" s="555" t="s">
-        <v>331</v>
-      </c>
-      <c r="E73" s="555" t="s">
+      <c r="D73" s="565" t="s">
+        <v>334</v>
+      </c>
+      <c r="E73" s="565" t="s">
         <v>358</v>
       </c>
-      <c r="F73" s="555" t="s">
+      <c r="F73" s="566" t="s">
         <v>106</v>
       </c>
-      <c r="G73" s="555"/>
     </row>
     <row r="74" spans="1:7" customFormat="1" ht="18">
-      <c r="A74" s="520">
+      <c r="A74" s="562">
         <v>42736</v>
       </c>
-      <c r="B74" s="520"/>
-      <c r="C74" s="565" t="s">
+      <c r="B74" s="568"/>
+      <c r="C74" s="563" t="s">
         <v>325</v>
       </c>
-      <c r="D74" s="565" t="s">
-        <v>334</v>
-      </c>
-      <c r="E74" s="565" t="s">
+      <c r="D74" s="563" t="s">
+        <v>336</v>
+      </c>
+      <c r="E74" s="563" t="s">
         <v>357</v>
       </c>
-      <c r="F74" s="566" t="s">
+      <c r="F74" s="564" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="75" spans="1:7" customFormat="1" ht="18">
-      <c r="A75" s="520">
+      <c r="A75" s="562">
         <v>42736</v>
       </c>
-      <c r="B75" s="520"/>
-      <c r="C75" s="565" t="s">
+      <c r="B75" s="568"/>
+      <c r="C75" s="563" t="s">
         <v>325</v>
       </c>
-      <c r="D75" s="565" t="s">
-        <v>334</v>
-      </c>
-      <c r="E75" s="565" t="s">
+      <c r="D75" s="563" t="s">
+        <v>336</v>
+      </c>
+      <c r="E75" s="563" t="s">
         <v>358</v>
       </c>
-      <c r="F75" s="566" t="s">
+      <c r="F75" s="564" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="76" spans="1:7" customFormat="1" ht="18">
-      <c r="A76" s="562">
+      <c r="A76" s="520">
         <v>42736</v>
       </c>
-      <c r="B76" s="568"/>
-      <c r="C76" s="563" t="s">
+      <c r="B76" s="569"/>
+      <c r="C76" s="565" t="s">
         <v>325</v>
       </c>
-      <c r="D76" s="563" t="s">
-        <v>336</v>
-      </c>
-      <c r="E76" s="563" t="s">
-        <v>357</v>
-      </c>
-      <c r="F76" s="564" t="s">
+      <c r="D76" s="565" t="s">
+        <v>339</v>
+      </c>
+      <c r="E76" s="565" t="s">
+        <v>358</v>
+      </c>
+      <c r="F76" s="566" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="77" spans="1:7" customFormat="1" ht="18">
-      <c r="A77" s="562">
+    <row r="77" spans="1:7" s="318" customFormat="1" ht="20" customHeight="1">
+      <c r="A77" s="52">
         <v>42736</v>
       </c>
-      <c r="B77" s="568"/>
-      <c r="C77" s="563" t="s">
-        <v>325</v>
-      </c>
-      <c r="D77" s="563" t="s">
-        <v>336</v>
-      </c>
-      <c r="E77" s="563" t="s">
+      <c r="B77" s="53"/>
+      <c r="C77" s="555" t="s">
+        <v>321</v>
+      </c>
+      <c r="D77" s="555" t="s">
+        <v>373</v>
+      </c>
+      <c r="E77" s="555" t="s">
         <v>358</v>
       </c>
-      <c r="F77" s="564" t="s">
+      <c r="F77" s="555" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" customFormat="1" ht="18">
-      <c r="A78" s="520">
+      <c r="G77" s="555"/>
+    </row>
+    <row r="78" spans="1:7" s="318" customFormat="1" ht="20" customHeight="1">
+      <c r="A78" s="52">
         <v>42736</v>
       </c>
-      <c r="B78" s="569"/>
-      <c r="C78" s="565" t="s">
-        <v>325</v>
-      </c>
-      <c r="D78" s="565" t="s">
-        <v>339</v>
-      </c>
-      <c r="E78" s="565" t="s">
-        <v>358</v>
-      </c>
-      <c r="F78" s="566" t="s">
+      <c r="B78" s="53"/>
+      <c r="C78" s="555" t="s">
+        <v>321</v>
+      </c>
+      <c r="D78" s="555" t="s">
+        <v>373</v>
+      </c>
+      <c r="E78" s="555" t="s">
+        <v>363</v>
+      </c>
+      <c r="F78" s="555" t="s">
         <v>106</v>
       </c>
+      <c r="G78" s="555"/>
     </row>
     <row r="79" spans="1:7" s="318" customFormat="1" ht="20" customHeight="1">
-      <c r="A79" s="52"/>
-      <c r="B79" s="53"/>
-      <c r="C79" s="54"/>
-      <c r="D79" s="54"/>
-      <c r="E79" s="72"/>
-      <c r="F79" s="99"/>
+      <c r="A79" s="58"/>
+      <c r="B79" s="59"/>
+      <c r="C79" s="60"/>
+      <c r="D79" s="57"/>
+      <c r="E79" s="75"/>
+      <c r="F79" s="103"/>
     </row>
     <row r="80" spans="1:7" s="318" customFormat="1" ht="20" customHeight="1">
       <c r="A80" s="58"/>
@@ -30937,7 +30913,7 @@
       <c r="A96" s="58"/>
       <c r="B96" s="59"/>
       <c r="C96" s="60"/>
-      <c r="D96" s="57"/>
+      <c r="D96" s="60"/>
       <c r="E96" s="75"/>
       <c r="F96" s="103"/>
     </row>
@@ -30945,7 +30921,7 @@
       <c r="A97" s="58"/>
       <c r="B97" s="59"/>
       <c r="C97" s="60"/>
-      <c r="D97" s="57"/>
+      <c r="D97" s="60"/>
       <c r="E97" s="75"/>
       <c r="F97" s="103"/>
     </row>
@@ -30969,7 +30945,7 @@
       <c r="A100" s="58"/>
       <c r="B100" s="59"/>
       <c r="C100" s="60"/>
-      <c r="D100" s="60"/>
+      <c r="D100" s="57"/>
       <c r="E100" s="75"/>
       <c r="F100" s="103"/>
     </row>
@@ -30977,7 +30953,7 @@
       <c r="A101" s="58"/>
       <c r="B101" s="59"/>
       <c r="C101" s="60"/>
-      <c r="D101" s="60"/>
+      <c r="D101" s="57"/>
       <c r="E101" s="75"/>
       <c r="F101" s="103"/>
     </row>
@@ -31005,7 +30981,7 @@
       <c r="E104" s="75"/>
       <c r="F104" s="103"/>
     </row>
-    <row r="105" spans="1:6" s="318" customFormat="1" ht="20" customHeight="1">
+    <row r="105" spans="1:6" s="322" customFormat="1" ht="20" customHeight="1">
       <c r="A105" s="58"/>
       <c r="B105" s="59"/>
       <c r="C105" s="60"/>
@@ -31013,11 +30989,11 @@
       <c r="E105" s="75"/>
       <c r="F105" s="103"/>
     </row>
-    <row r="106" spans="1:6" s="318" customFormat="1" ht="20" customHeight="1">
+    <row r="106" spans="1:6" s="322" customFormat="1" ht="20" customHeight="1">
       <c r="A106" s="58"/>
       <c r="B106" s="59"/>
       <c r="C106" s="60"/>
-      <c r="D106" s="57"/>
+      <c r="D106" s="60"/>
       <c r="E106" s="75"/>
       <c r="F106" s="103"/>
     </row>
@@ -31025,25 +31001,25 @@
       <c r="A107" s="58"/>
       <c r="B107" s="59"/>
       <c r="C107" s="60"/>
-      <c r="D107" s="57"/>
+      <c r="D107" s="60"/>
       <c r="E107" s="75"/>
       <c r="F107" s="103"/>
     </row>
-    <row r="108" spans="1:6" s="322" customFormat="1" ht="20" customHeight="1">
-      <c r="A108" s="58"/>
-      <c r="B108" s="59"/>
-      <c r="C108" s="60"/>
-      <c r="D108" s="60"/>
-      <c r="E108" s="75"/>
-      <c r="F108" s="103"/>
-    </row>
-    <row r="109" spans="1:6" s="322" customFormat="1" ht="20" customHeight="1">
-      <c r="A109" s="58"/>
-      <c r="B109" s="59"/>
-      <c r="C109" s="60"/>
-      <c r="D109" s="60"/>
-      <c r="E109" s="75"/>
-      <c r="F109" s="103"/>
+    <row r="108" spans="1:6" s="318" customFormat="1" ht="20" customHeight="1">
+      <c r="A108" s="52"/>
+      <c r="B108" s="53"/>
+      <c r="C108" s="153"/>
+      <c r="D108" s="57"/>
+      <c r="E108" s="72"/>
+      <c r="F108" s="99"/>
+    </row>
+    <row r="109" spans="1:6" s="318" customFormat="1" ht="20" customHeight="1">
+      <c r="A109" s="52"/>
+      <c r="B109" s="53"/>
+      <c r="C109" s="153"/>
+      <c r="D109" s="57"/>
+      <c r="E109" s="72"/>
+      <c r="F109" s="99"/>
     </row>
     <row r="110" spans="1:6" s="318" customFormat="1" ht="20" customHeight="1">
       <c r="A110" s="52"/>
@@ -31055,7 +31031,7 @@
     </row>
     <row r="111" spans="1:6" s="318" customFormat="1" ht="20" customHeight="1">
       <c r="A111" s="52"/>
-      <c r="B111" s="53"/>
+      <c r="B111" s="72"/>
       <c r="C111" s="153"/>
       <c r="D111" s="57"/>
       <c r="E111" s="72"/>
@@ -31063,9 +31039,9 @@
     </row>
     <row r="112" spans="1:6" s="318" customFormat="1" ht="20" customHeight="1">
       <c r="A112" s="52"/>
-      <c r="B112" s="53"/>
+      <c r="B112" s="61"/>
       <c r="C112" s="153"/>
-      <c r="D112" s="57"/>
+      <c r="D112" s="153"/>
       <c r="E112" s="72"/>
       <c r="F112" s="99"/>
     </row>
@@ -31073,13 +31049,13 @@
       <c r="A113" s="52"/>
       <c r="B113" s="72"/>
       <c r="C113" s="153"/>
-      <c r="D113" s="57"/>
+      <c r="D113" s="153"/>
       <c r="E113" s="72"/>
       <c r="F113" s="99"/>
     </row>
     <row r="114" spans="1:6" s="318" customFormat="1" ht="20" customHeight="1">
       <c r="A114" s="52"/>
-      <c r="B114" s="61"/>
+      <c r="B114" s="72"/>
       <c r="C114" s="153"/>
       <c r="D114" s="153"/>
       <c r="E114" s="72"/>
@@ -31087,32 +31063,32 @@
     </row>
     <row r="115" spans="1:6" s="318" customFormat="1" ht="20" customHeight="1">
       <c r="A115" s="52"/>
-      <c r="B115" s="72"/>
-      <c r="C115" s="153"/>
-      <c r="D115" s="153"/>
+      <c r="B115" s="53"/>
+      <c r="C115" s="54"/>
+      <c r="D115" s="54"/>
       <c r="E115" s="72"/>
       <c r="F115" s="99"/>
     </row>
-    <row r="116" spans="1:6" s="318" customFormat="1" ht="20" customHeight="1">
-      <c r="A116" s="52"/>
-      <c r="B116" s="72"/>
-      <c r="C116" s="153"/>
-      <c r="D116" s="153"/>
-      <c r="E116" s="72"/>
-      <c r="F116" s="99"/>
-    </row>
-    <row r="117" spans="1:6" s="318" customFormat="1" ht="20" customHeight="1">
-      <c r="A117" s="52"/>
-      <c r="B117" s="53"/>
-      <c r="C117" s="54"/>
-      <c r="D117" s="54"/>
-      <c r="E117" s="72"/>
-      <c r="F117" s="99"/>
+    <row r="116" spans="1:6" s="322" customFormat="1" ht="20" customHeight="1">
+      <c r="A116" s="58"/>
+      <c r="B116" s="59"/>
+      <c r="C116" s="57"/>
+      <c r="D116" s="60"/>
+      <c r="E116" s="75"/>
+      <c r="F116" s="103"/>
+    </row>
+    <row r="117" spans="1:6" s="322" customFormat="1" ht="20" customHeight="1">
+      <c r="A117" s="58"/>
+      <c r="B117" s="59"/>
+      <c r="C117" s="57"/>
+      <c r="D117" s="60"/>
+      <c r="E117" s="75"/>
+      <c r="F117" s="103"/>
     </row>
     <row r="118" spans="1:6" s="322" customFormat="1" ht="20" customHeight="1">
       <c r="A118" s="58"/>
       <c r="B118" s="59"/>
-      <c r="C118" s="57"/>
+      <c r="C118" s="60"/>
       <c r="D118" s="60"/>
       <c r="E118" s="75"/>
       <c r="F118" s="103"/>
@@ -31120,7 +31096,7 @@
     <row r="119" spans="1:6" s="322" customFormat="1" ht="20" customHeight="1">
       <c r="A119" s="58"/>
       <c r="B119" s="59"/>
-      <c r="C119" s="57"/>
+      <c r="C119" s="60"/>
       <c r="D119" s="60"/>
       <c r="E119" s="75"/>
       <c r="F119" s="103"/>
@@ -31128,7 +31104,7 @@
     <row r="120" spans="1:6" s="322" customFormat="1" ht="20" customHeight="1">
       <c r="A120" s="58"/>
       <c r="B120" s="59"/>
-      <c r="C120" s="60"/>
+      <c r="C120" s="57"/>
       <c r="D120" s="60"/>
       <c r="E120" s="75"/>
       <c r="F120" s="103"/>
@@ -31136,7 +31112,7 @@
     <row r="121" spans="1:6" s="322" customFormat="1" ht="20" customHeight="1">
       <c r="A121" s="58"/>
       <c r="B121" s="59"/>
-      <c r="C121" s="60"/>
+      <c r="C121" s="57"/>
       <c r="D121" s="60"/>
       <c r="E121" s="75"/>
       <c r="F121" s="103"/>
@@ -31157,37 +31133,37 @@
       <c r="E123" s="75"/>
       <c r="F123" s="103"/>
     </row>
-    <row r="124" spans="1:6" s="322" customFormat="1" ht="20" customHeight="1">
+    <row r="124" spans="1:6" s="318" customFormat="1" ht="20" customHeight="1">
       <c r="A124" s="58"/>
       <c r="B124" s="59"/>
       <c r="C124" s="57"/>
-      <c r="D124" s="60"/>
+      <c r="D124" s="57"/>
       <c r="E124" s="75"/>
       <c r="F124" s="103"/>
     </row>
-    <row r="125" spans="1:6" s="322" customFormat="1" ht="20" customHeight="1">
+    <row r="125" spans="1:6" s="318" customFormat="1" ht="20" customHeight="1">
       <c r="A125" s="58"/>
       <c r="B125" s="59"/>
       <c r="C125" s="57"/>
-      <c r="D125" s="60"/>
+      <c r="D125" s="57"/>
       <c r="E125" s="75"/>
       <c r="F125" s="103"/>
     </row>
     <row r="126" spans="1:6" s="318" customFormat="1" ht="20" customHeight="1">
-      <c r="A126" s="58"/>
-      <c r="B126" s="59"/>
-      <c r="C126" s="57"/>
-      <c r="D126" s="57"/>
-      <c r="E126" s="75"/>
-      <c r="F126" s="103"/>
+      <c r="A126" s="63"/>
+      <c r="B126" s="76"/>
+      <c r="C126" s="65"/>
+      <c r="D126" s="65"/>
+      <c r="E126" s="79"/>
+      <c r="F126" s="106"/>
     </row>
     <row r="127" spans="1:6" s="318" customFormat="1" ht="20" customHeight="1">
-      <c r="A127" s="58"/>
-      <c r="B127" s="59"/>
-      <c r="C127" s="57"/>
-      <c r="D127" s="57"/>
-      <c r="E127" s="75"/>
-      <c r="F127" s="103"/>
+      <c r="A127" s="63"/>
+      <c r="B127" s="76"/>
+      <c r="C127" s="65"/>
+      <c r="D127" s="65"/>
+      <c r="E127" s="79"/>
+      <c r="F127" s="106"/>
     </row>
     <row r="128" spans="1:6" s="318" customFormat="1" ht="20" customHeight="1">
       <c r="A128" s="63"/>
@@ -31271,17 +31247,17 @@
     </row>
     <row r="138" spans="1:6" s="318" customFormat="1" ht="20" customHeight="1">
       <c r="A138" s="63"/>
-      <c r="B138" s="76"/>
-      <c r="C138" s="65"/>
-      <c r="D138" s="65"/>
+      <c r="B138" s="53"/>
+      <c r="C138" s="57"/>
+      <c r="D138" s="57"/>
       <c r="E138" s="79"/>
       <c r="F138" s="106"/>
     </row>
     <row r="139" spans="1:6" s="318" customFormat="1" ht="20" customHeight="1">
       <c r="A139" s="63"/>
-      <c r="B139" s="76"/>
-      <c r="C139" s="65"/>
-      <c r="D139" s="65"/>
+      <c r="B139" s="53"/>
+      <c r="C139" s="57"/>
+      <c r="D139" s="57"/>
       <c r="E139" s="79"/>
       <c r="F139" s="106"/>
     </row>
@@ -31343,27 +31319,27 @@
     </row>
     <row r="147" spans="1:6" s="318" customFormat="1" ht="20" customHeight="1">
       <c r="A147" s="63"/>
-      <c r="B147" s="53"/>
+      <c r="B147" s="229"/>
       <c r="C147" s="57"/>
-      <c r="D147" s="57"/>
+      <c r="D147" s="65"/>
       <c r="E147" s="79"/>
       <c r="F147" s="106"/>
     </row>
     <row r="148" spans="1:6" s="318" customFormat="1" ht="20" customHeight="1">
-      <c r="A148" s="63"/>
+      <c r="A148" s="52"/>
       <c r="B148" s="53"/>
       <c r="C148" s="57"/>
       <c r="D148" s="57"/>
-      <c r="E148" s="79"/>
-      <c r="F148" s="106"/>
+      <c r="E148" s="72"/>
+      <c r="F148" s="99"/>
     </row>
     <row r="149" spans="1:6" s="318" customFormat="1" ht="20" customHeight="1">
-      <c r="A149" s="63"/>
-      <c r="B149" s="229"/>
+      <c r="A149" s="52"/>
+      <c r="B149" s="53"/>
       <c r="C149" s="57"/>
-      <c r="D149" s="65"/>
-      <c r="E149" s="79"/>
-      <c r="F149" s="106"/>
+      <c r="D149" s="57"/>
+      <c r="E149" s="72"/>
+      <c r="F149" s="99"/>
     </row>
     <row r="150" spans="1:6" s="318" customFormat="1" ht="20" customHeight="1">
       <c r="A150" s="52"/>
@@ -31446,12 +31422,12 @@
       <c r="F159" s="99"/>
     </row>
     <row r="160" spans="1:6" s="318" customFormat="1" ht="20" customHeight="1">
-      <c r="A160" s="52"/>
-      <c r="B160" s="53"/>
+      <c r="A160" s="121"/>
+      <c r="B160" s="108"/>
       <c r="C160" s="57"/>
       <c r="D160" s="57"/>
       <c r="E160" s="72"/>
-      <c r="F160" s="99"/>
+      <c r="F160" s="155"/>
     </row>
     <row r="161" spans="1:6" s="318" customFormat="1" ht="20" customHeight="1">
       <c r="A161" s="52"/>
@@ -31462,12 +31438,12 @@
       <c r="F161" s="99"/>
     </row>
     <row r="162" spans="1:6" s="318" customFormat="1" ht="20" customHeight="1">
-      <c r="A162" s="121"/>
-      <c r="B162" s="108"/>
+      <c r="A162" s="52"/>
+      <c r="B162" s="53"/>
       <c r="C162" s="57"/>
       <c r="D162" s="57"/>
       <c r="E162" s="72"/>
-      <c r="F162" s="155"/>
+      <c r="F162" s="99"/>
     </row>
     <row r="163" spans="1:6" s="318" customFormat="1" ht="20" customHeight="1">
       <c r="A163" s="52"/>
@@ -31486,12 +31462,12 @@
       <c r="F164" s="99"/>
     </row>
     <row r="165" spans="1:6" s="318" customFormat="1" ht="20" customHeight="1">
-      <c r="A165" s="52"/>
-      <c r="B165" s="53"/>
+      <c r="A165" s="58"/>
+      <c r="B165" s="59"/>
       <c r="C165" s="57"/>
       <c r="D165" s="57"/>
       <c r="E165" s="72"/>
-      <c r="F165" s="99"/>
+      <c r="F165" s="103"/>
     </row>
     <row r="166" spans="1:6" s="318" customFormat="1" ht="20" customHeight="1">
       <c r="A166" s="52"/>
@@ -31502,28 +31478,28 @@
       <c r="F166" s="99"/>
     </row>
     <row r="167" spans="1:6" s="318" customFormat="1" ht="20" customHeight="1">
-      <c r="A167" s="58"/>
-      <c r="B167" s="59"/>
-      <c r="C167" s="57"/>
-      <c r="D167" s="57"/>
+      <c r="A167" s="204"/>
+      <c r="B167" s="229"/>
+      <c r="C167" s="65"/>
+      <c r="D167" s="65"/>
       <c r="E167" s="72"/>
-      <c r="F167" s="103"/>
+      <c r="F167" s="207"/>
     </row>
     <row r="168" spans="1:6" s="318" customFormat="1" ht="20" customHeight="1">
-      <c r="A168" s="52"/>
+      <c r="A168" s="204"/>
       <c r="B168" s="53"/>
       <c r="C168" s="57"/>
       <c r="D168" s="57"/>
-      <c r="E168" s="72"/>
+      <c r="E168" s="61"/>
       <c r="F168" s="99"/>
     </row>
     <row r="169" spans="1:6" s="318" customFormat="1" ht="20" customHeight="1">
       <c r="A169" s="204"/>
-      <c r="B169" s="229"/>
-      <c r="C169" s="65"/>
-      <c r="D169" s="65"/>
-      <c r="E169" s="72"/>
-      <c r="F169" s="207"/>
+      <c r="B169" s="53"/>
+      <c r="C169" s="57"/>
+      <c r="D169" s="57"/>
+      <c r="E169" s="61"/>
+      <c r="F169" s="99"/>
     </row>
     <row r="170" spans="1:6" s="318" customFormat="1" ht="20" customHeight="1">
       <c r="A170" s="204"/>
@@ -31559,35 +31535,35 @@
     </row>
     <row r="174" spans="1:6" s="318" customFormat="1" ht="20" customHeight="1">
       <c r="A174" s="204"/>
-      <c r="B174" s="53"/>
-      <c r="C174" s="57"/>
-      <c r="D174" s="57"/>
-      <c r="E174" s="61"/>
-      <c r="F174" s="99"/>
+      <c r="B174" s="229"/>
+      <c r="C174" s="65"/>
+      <c r="D174" s="65"/>
+      <c r="E174" s="64"/>
+      <c r="F174" s="207"/>
     </row>
     <row r="175" spans="1:6" s="318" customFormat="1" ht="20" customHeight="1">
       <c r="A175" s="204"/>
-      <c r="B175" s="53"/>
-      <c r="C175" s="57"/>
+      <c r="B175" s="229"/>
+      <c r="C175" s="65"/>
       <c r="D175" s="57"/>
-      <c r="E175" s="61"/>
-      <c r="F175" s="99"/>
-    </row>
-    <row r="176" spans="1:6" s="318" customFormat="1" ht="20" customHeight="1">
+      <c r="E175" s="64"/>
+      <c r="F175" s="207"/>
+    </row>
+    <row r="176" spans="1:6" ht="20" customHeight="1">
       <c r="A176" s="204"/>
-      <c r="B176" s="229"/>
-      <c r="C176" s="65"/>
-      <c r="D176" s="65"/>
-      <c r="E176" s="64"/>
-      <c r="F176" s="207"/>
-    </row>
-    <row r="177" spans="1:6" s="318" customFormat="1" ht="20" customHeight="1">
+      <c r="B176" s="53"/>
+      <c r="C176" s="57"/>
+      <c r="D176" s="57"/>
+      <c r="E176" s="61"/>
+      <c r="F176" s="99"/>
+    </row>
+    <row r="177" spans="1:6" ht="20" customHeight="1">
       <c r="A177" s="204"/>
-      <c r="B177" s="229"/>
-      <c r="C177" s="65"/>
+      <c r="B177" s="53"/>
+      <c r="C177" s="57"/>
       <c r="D177" s="57"/>
-      <c r="E177" s="64"/>
-      <c r="F177" s="207"/>
+      <c r="E177" s="61"/>
+      <c r="F177" s="99"/>
     </row>
     <row r="178" spans="1:6" ht="20" customHeight="1">
       <c r="A178" s="204"/>
@@ -31789,13 +31765,13 @@
       <c r="E202" s="61"/>
       <c r="F202" s="99"/>
     </row>
-    <row r="203" spans="1:6" ht="20" customHeight="1">
+    <row r="203" spans="1:6" s="318" customFormat="1" ht="20" customHeight="1">
       <c r="A203" s="204"/>
-      <c r="B203" s="53"/>
+      <c r="B203" s="229"/>
       <c r="C203" s="57"/>
       <c r="D203" s="57"/>
-      <c r="E203" s="61"/>
-      <c r="F203" s="99"/>
+      <c r="E203" s="64"/>
+      <c r="F203" s="207"/>
     </row>
     <row r="204" spans="1:6" ht="20" customHeight="1">
       <c r="A204" s="204"/>
@@ -31805,13 +31781,13 @@
       <c r="E204" s="61"/>
       <c r="F204" s="99"/>
     </row>
-    <row r="205" spans="1:6" s="318" customFormat="1" ht="20" customHeight="1">
+    <row r="205" spans="1:6" ht="20" customHeight="1">
       <c r="A205" s="204"/>
-      <c r="B205" s="229"/>
+      <c r="B205" s="53"/>
       <c r="C205" s="57"/>
       <c r="D205" s="57"/>
-      <c r="E205" s="64"/>
-      <c r="F205" s="207"/>
+      <c r="E205" s="61"/>
+      <c r="F205" s="99"/>
     </row>
     <row r="206" spans="1:6" ht="20" customHeight="1">
       <c r="A206" s="204"/>
@@ -32120,8 +32096,8 @@
     <row r="244" spans="1:6" ht="20" customHeight="1">
       <c r="A244" s="204"/>
       <c r="B244" s="53"/>
-      <c r="C244" s="57"/>
-      <c r="D244" s="57"/>
+      <c r="C244" s="458"/>
+      <c r="D244" s="518"/>
       <c r="E244" s="61"/>
       <c r="F244" s="99"/>
     </row>
@@ -32129,7 +32105,7 @@
       <c r="A245" s="204"/>
       <c r="B245" s="53"/>
       <c r="C245" s="57"/>
-      <c r="D245" s="57"/>
+      <c r="D245" s="519"/>
       <c r="E245" s="61"/>
       <c r="F245" s="99"/>
     </row>
@@ -32145,7 +32121,7 @@
       <c r="A247" s="204"/>
       <c r="B247" s="53"/>
       <c r="C247" s="57"/>
-      <c r="D247" s="519"/>
+      <c r="D247" s="455"/>
       <c r="E247" s="61"/>
       <c r="F247" s="99"/>
     </row>
@@ -32153,7 +32129,7 @@
       <c r="A248" s="204"/>
       <c r="B248" s="53"/>
       <c r="C248" s="458"/>
-      <c r="D248" s="518"/>
+      <c r="D248" s="456"/>
       <c r="E248" s="61"/>
       <c r="F248" s="99"/>
     </row>
@@ -32161,25 +32137,25 @@
       <c r="A249" s="204"/>
       <c r="B249" s="53"/>
       <c r="C249" s="57"/>
-      <c r="D249" s="455"/>
+      <c r="D249" s="54"/>
       <c r="E249" s="61"/>
       <c r="F249" s="99"/>
     </row>
-    <row r="250" spans="1:6" ht="20" customHeight="1">
-      <c r="A250" s="204"/>
-      <c r="B250" s="53"/>
-      <c r="C250" s="458"/>
-      <c r="D250" s="456"/>
-      <c r="E250" s="61"/>
-      <c r="F250" s="99"/>
-    </row>
-    <row r="251" spans="1:6" ht="20" customHeight="1">
-      <c r="A251" s="204"/>
-      <c r="B251" s="53"/>
-      <c r="C251" s="57"/>
-      <c r="D251" s="54"/>
-      <c r="E251" s="61"/>
-      <c r="F251" s="99"/>
+    <row r="250" spans="1:6" s="18" customFormat="1" ht="20" customHeight="1">
+      <c r="A250" s="501"/>
+      <c r="B250" s="502"/>
+      <c r="C250" s="482"/>
+      <c r="D250" s="463"/>
+      <c r="E250" s="503"/>
+      <c r="F250" s="504"/>
+    </row>
+    <row r="251" spans="1:6" s="18" customFormat="1" ht="20" customHeight="1">
+      <c r="A251" s="501"/>
+      <c r="B251" s="502"/>
+      <c r="C251" s="482"/>
+      <c r="D251" s="463"/>
+      <c r="E251" s="503"/>
+      <c r="F251" s="504"/>
     </row>
     <row r="252" spans="1:6" s="18" customFormat="1" ht="20" customHeight="1">
       <c r="A252" s="501"/>
@@ -32199,21 +32175,21 @@
     </row>
     <row r="254" spans="1:6" s="18" customFormat="1" ht="20" customHeight="1">
       <c r="A254" s="501"/>
-      <c r="B254" s="502"/>
-      <c r="C254" s="482"/>
-      <c r="D254" s="463"/>
-      <c r="E254" s="503"/>
-      <c r="F254" s="504"/>
+      <c r="B254" s="501"/>
+      <c r="C254" s="501"/>
+      <c r="D254" s="501"/>
+      <c r="E254" s="501"/>
+      <c r="F254" s="501"/>
     </row>
     <row r="255" spans="1:6" s="18" customFormat="1" ht="20" customHeight="1">
       <c r="A255" s="501"/>
-      <c r="B255" s="502"/>
-      <c r="C255" s="482"/>
-      <c r="D255" s="463"/>
-      <c r="E255" s="503"/>
-      <c r="F255" s="504"/>
-    </row>
-    <row r="256" spans="1:6" s="18" customFormat="1" ht="20" customHeight="1">
+      <c r="B255" s="501"/>
+      <c r="C255" s="501"/>
+      <c r="D255" s="501"/>
+      <c r="E255" s="501"/>
+      <c r="F255" s="501"/>
+    </row>
+    <row r="256" spans="1:6" s="18" customFormat="1" ht="13.25" customHeight="1">
       <c r="A256" s="501"/>
       <c r="B256" s="501"/>
       <c r="C256" s="501"/>
@@ -32221,7 +32197,7 @@
       <c r="E256" s="501"/>
       <c r="F256" s="501"/>
     </row>
-    <row r="257" spans="1:6" s="18" customFormat="1" ht="20" customHeight="1">
+    <row r="257" spans="1:6" s="18" customFormat="1" ht="13.25" customHeight="1">
       <c r="A257" s="501"/>
       <c r="B257" s="501"/>
       <c r="C257" s="501"/>
@@ -32229,21 +32205,21 @@
       <c r="E257" s="501"/>
       <c r="F257" s="501"/>
     </row>
-    <row r="258" spans="1:6" s="18" customFormat="1" ht="13.25" customHeight="1">
-      <c r="A258" s="501"/>
-      <c r="B258" s="501"/>
-      <c r="C258" s="501"/>
-      <c r="D258" s="501"/>
-      <c r="E258" s="501"/>
-      <c r="F258" s="501"/>
-    </row>
-    <row r="259" spans="1:6" s="18" customFormat="1" ht="13.25" customHeight="1">
-      <c r="A259" s="501"/>
-      <c r="B259" s="501"/>
-      <c r="C259" s="501"/>
-      <c r="D259" s="501"/>
-      <c r="E259" s="501"/>
-      <c r="F259" s="501"/>
+    <row r="258" spans="1:6" s="318" customFormat="1" ht="20" customHeight="1">
+      <c r="A258" s="52"/>
+      <c r="B258" s="53"/>
+      <c r="C258" s="54"/>
+      <c r="D258" s="54"/>
+      <c r="E258" s="72"/>
+      <c r="F258" s="99"/>
+    </row>
+    <row r="259" spans="1:6" s="318" customFormat="1" ht="20" customHeight="1">
+      <c r="A259" s="52"/>
+      <c r="B259" s="53"/>
+      <c r="C259" s="54"/>
+      <c r="D259" s="54"/>
+      <c r="E259" s="72"/>
+      <c r="F259" s="99"/>
     </row>
     <row r="260" spans="1:6" s="318" customFormat="1" ht="20" customHeight="1">
       <c r="A260" s="52"/>
@@ -32257,41 +32233,41 @@
       <c r="A261" s="52"/>
       <c r="B261" s="53"/>
       <c r="C261" s="54"/>
-      <c r="D261" s="54"/>
+      <c r="D261" s="57"/>
       <c r="E261" s="72"/>
-      <c r="F261" s="99"/>
+      <c r="F261" s="217"/>
     </row>
     <row r="262" spans="1:6" s="318" customFormat="1" ht="20" customHeight="1">
       <c r="A262" s="52"/>
       <c r="B262" s="53"/>
       <c r="C262" s="54"/>
-      <c r="D262" s="54"/>
+      <c r="D262" s="57"/>
       <c r="E262" s="72"/>
       <c r="F262" s="99"/>
     </row>
-    <row r="263" spans="1:6" s="318" customFormat="1" ht="20" customHeight="1">
-      <c r="A263" s="52"/>
-      <c r="B263" s="53"/>
-      <c r="C263" s="54"/>
-      <c r="D263" s="57"/>
-      <c r="E263" s="72"/>
-      <c r="F263" s="217"/>
+    <row r="263" spans="1:6" s="313" customFormat="1" ht="20" customHeight="1">
+      <c r="A263" s="550"/>
+      <c r="B263" s="523"/>
+      <c r="C263" s="525"/>
+      <c r="D263" s="525"/>
+      <c r="E263" s="526"/>
+      <c r="F263" s="529"/>
     </row>
     <row r="264" spans="1:6" s="318" customFormat="1" ht="20" customHeight="1">
       <c r="A264" s="52"/>
       <c r="B264" s="53"/>
-      <c r="C264" s="54"/>
-      <c r="D264" s="57"/>
+      <c r="C264" s="57"/>
+      <c r="D264" s="54"/>
       <c r="E264" s="72"/>
       <c r="F264" s="99"/>
     </row>
-    <row r="265" spans="1:6" s="313" customFormat="1" ht="20" customHeight="1">
-      <c r="A265" s="550"/>
-      <c r="B265" s="523"/>
-      <c r="C265" s="525"/>
-      <c r="D265" s="525"/>
-      <c r="E265" s="526"/>
-      <c r="F265" s="529"/>
+    <row r="265" spans="1:6" s="318" customFormat="1" ht="20" customHeight="1">
+      <c r="A265" s="52"/>
+      <c r="B265" s="53"/>
+      <c r="C265" s="57"/>
+      <c r="D265" s="54"/>
+      <c r="E265" s="72"/>
+      <c r="F265" s="99"/>
     </row>
     <row r="266" spans="1:6" s="318" customFormat="1" ht="20" customHeight="1">
       <c r="A266" s="52"/>
@@ -32300,22 +32276,6 @@
       <c r="D266" s="54"/>
       <c r="E266" s="72"/>
       <c r="F266" s="99"/>
-    </row>
-    <row r="267" spans="1:6" s="318" customFormat="1" ht="20" customHeight="1">
-      <c r="A267" s="52"/>
-      <c r="B267" s="53"/>
-      <c r="C267" s="57"/>
-      <c r="D267" s="54"/>
-      <c r="E267" s="72"/>
-      <c r="F267" s="99"/>
-    </row>
-    <row r="268" spans="1:6" s="318" customFormat="1" ht="20" customHeight="1">
-      <c r="A268" s="52"/>
-      <c r="B268" s="53"/>
-      <c r="C268" s="57"/>
-      <c r="D268" s="54"/>
-      <c r="E268" s="72"/>
-      <c r="F268" s="99"/>
     </row>
   </sheetData>
   <phoneticPr fontId="57" type="noConversion"/>
@@ -32334,8 +32294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView topLeftCell="AE1" workbookViewId="0">
-      <selection activeCell="J45" sqref="J45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
@@ -32614,8 +32574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:EK80"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView showGridLines="0" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1"/>
@@ -33961,8 +33921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:G72"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X52" sqref="X52"/>
+    <sheetView showGridLines="0" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1"/>
@@ -35291,8 +35251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C46E332-1601-DB46-9E37-4B0D4219E272}">
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R46" sqref="R46"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
@@ -36127,7 +36087,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1"/>
@@ -36729,11 +36689,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:IO187"/>
+  <dimension ref="A1:IO188"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1"/>
@@ -37073,7 +37033,7 @@
         <v>374</v>
       </c>
       <c r="F11" s="102"/>
-      <c r="G11" s="555" t="s">
+      <c r="G11" s="561" t="s">
         <v>375</v>
       </c>
       <c r="H11" s="60"/>
@@ -37526,9 +37486,9 @@
       <c r="D28" s="73"/>
       <c r="E28" s="57"/>
       <c r="F28" s="72"/>
-      <c r="G28" s="57"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="57"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="54"/>
       <c r="J28" s="72"/>
       <c r="K28" s="54"/>
       <c r="L28" s="72"/>
@@ -37538,32 +37498,32 @@
     </row>
     <row r="29" spans="1:15" s="318" customFormat="1" ht="21" customHeight="1">
       <c r="A29" s="53"/>
-      <c r="B29" s="111"/>
-      <c r="C29" s="54"/>
+      <c r="B29" s="53"/>
+      <c r="C29" s="57"/>
       <c r="D29" s="73"/>
-      <c r="E29" s="73"/>
-      <c r="F29" s="112"/>
-      <c r="G29" s="73"/>
-      <c r="H29" s="73"/>
-      <c r="I29" s="112"/>
-      <c r="J29" s="112"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="72"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="57"/>
+      <c r="J29" s="72"/>
       <c r="K29" s="54"/>
-      <c r="L29" s="112"/>
-      <c r="M29" s="112"/>
+      <c r="L29" s="72"/>
+      <c r="M29" s="72"/>
       <c r="N29" s="60"/>
       <c r="O29" s="54"/>
     </row>
     <row r="30" spans="1:15" s="318" customFormat="1" ht="21" customHeight="1">
       <c r="A30" s="53"/>
       <c r="B30" s="111"/>
-      <c r="C30" s="104"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="54"/>
-      <c r="F30" s="61"/>
-      <c r="G30" s="54"/>
-      <c r="H30" s="54"/>
-      <c r="I30" s="54"/>
-      <c r="J30" s="61"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="73"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="112"/>
+      <c r="G30" s="73"/>
+      <c r="H30" s="73"/>
+      <c r="I30" s="112"/>
+      <c r="J30" s="112"/>
       <c r="K30" s="54"/>
       <c r="L30" s="112"/>
       <c r="M30" s="112"/>
@@ -37574,7 +37534,7 @@
       <c r="A31" s="53"/>
       <c r="B31" s="111"/>
       <c r="C31" s="104"/>
-      <c r="D31" s="104"/>
+      <c r="D31" s="61"/>
       <c r="E31" s="54"/>
       <c r="F31" s="61"/>
       <c r="G31" s="54"/>
@@ -37582,22 +37542,22 @@
       <c r="I31" s="54"/>
       <c r="J31" s="61"/>
       <c r="K31" s="54"/>
-      <c r="L31" s="72"/>
-      <c r="M31" s="72"/>
+      <c r="L31" s="112"/>
+      <c r="M31" s="112"/>
       <c r="N31" s="60"/>
       <c r="O31" s="54"/>
     </row>
     <row r="32" spans="1:15" s="318" customFormat="1" ht="21" customHeight="1">
       <c r="A32" s="53"/>
-      <c r="B32" s="53"/>
-      <c r="C32" s="54"/>
-      <c r="D32" s="73"/>
-      <c r="E32" s="57"/>
-      <c r="F32" s="72"/>
-      <c r="G32" s="57"/>
-      <c r="H32" s="57"/>
-      <c r="I32" s="57"/>
-      <c r="J32" s="72"/>
+      <c r="B32" s="111"/>
+      <c r="C32" s="104"/>
+      <c r="D32" s="104"/>
+      <c r="E32" s="54"/>
+      <c r="F32" s="61"/>
+      <c r="G32" s="54"/>
+      <c r="H32" s="54"/>
+      <c r="I32" s="54"/>
+      <c r="J32" s="61"/>
       <c r="K32" s="54"/>
       <c r="L32" s="72"/>
       <c r="M32" s="72"/>
@@ -37608,11 +37568,11 @@
       <c r="A33" s="53"/>
       <c r="B33" s="53"/>
       <c r="C33" s="54"/>
-      <c r="D33" s="57"/>
+      <c r="D33" s="73"/>
       <c r="E33" s="57"/>
       <c r="F33" s="72"/>
-      <c r="G33" s="54"/>
-      <c r="H33" s="54"/>
+      <c r="G33" s="57"/>
+      <c r="H33" s="57"/>
       <c r="I33" s="57"/>
       <c r="J33" s="72"/>
       <c r="K33" s="54"/>
@@ -37621,22 +37581,22 @@
       <c r="N33" s="60"/>
       <c r="O33" s="54"/>
     </row>
-    <row r="34" spans="1:15" s="322" customFormat="1" ht="21" customHeight="1">
-      <c r="A34" s="59"/>
-      <c r="B34" s="59"/>
-      <c r="C34" s="60"/>
+    <row r="34" spans="1:15" s="318" customFormat="1" ht="21" customHeight="1">
+      <c r="A34" s="53"/>
+      <c r="B34" s="53"/>
+      <c r="C34" s="54"/>
       <c r="D34" s="57"/>
       <c r="E34" s="57"/>
-      <c r="F34" s="75"/>
-      <c r="G34" s="60"/>
-      <c r="H34" s="60"/>
+      <c r="F34" s="72"/>
+      <c r="G34" s="54"/>
+      <c r="H34" s="54"/>
       <c r="I34" s="57"/>
-      <c r="J34" s="75"/>
-      <c r="K34" s="60"/>
-      <c r="L34" s="75"/>
-      <c r="M34" s="75"/>
+      <c r="J34" s="72"/>
+      <c r="K34" s="54"/>
+      <c r="L34" s="72"/>
+      <c r="M34" s="72"/>
       <c r="N34" s="60"/>
-      <c r="O34" s="60"/>
+      <c r="O34" s="54"/>
     </row>
     <row r="35" spans="1:15" s="322" customFormat="1" ht="21" customHeight="1">
       <c r="A35" s="59"/>
@@ -37655,32 +37615,32 @@
       <c r="N35" s="60"/>
       <c r="O35" s="60"/>
     </row>
-    <row r="36" spans="1:15" s="318" customFormat="1" ht="21" customHeight="1">
-      <c r="A36" s="53"/>
-      <c r="B36" s="53"/>
-      <c r="C36" s="54"/>
-      <c r="D36" s="73"/>
+    <row r="36" spans="1:15" s="322" customFormat="1" ht="21" customHeight="1">
+      <c r="A36" s="59"/>
+      <c r="B36" s="59"/>
+      <c r="C36" s="60"/>
+      <c r="D36" s="57"/>
       <c r="E36" s="57"/>
-      <c r="F36" s="72"/>
-      <c r="G36" s="57"/>
-      <c r="H36" s="57"/>
+      <c r="F36" s="75"/>
+      <c r="G36" s="60"/>
+      <c r="H36" s="60"/>
       <c r="I36" s="57"/>
-      <c r="J36" s="72"/>
-      <c r="K36" s="54"/>
-      <c r="L36" s="72"/>
-      <c r="M36" s="72"/>
+      <c r="J36" s="75"/>
+      <c r="K36" s="60"/>
+      <c r="L36" s="75"/>
+      <c r="M36" s="75"/>
       <c r="N36" s="60"/>
-      <c r="O36" s="54"/>
+      <c r="O36" s="60"/>
     </row>
     <row r="37" spans="1:15" s="318" customFormat="1" ht="21" customHeight="1">
       <c r="A37" s="53"/>
       <c r="B37" s="53"/>
       <c r="C37" s="54"/>
-      <c r="D37" s="57"/>
+      <c r="D37" s="73"/>
       <c r="E37" s="57"/>
       <c r="F37" s="72"/>
-      <c r="G37" s="54"/>
-      <c r="H37" s="54"/>
+      <c r="G37" s="57"/>
+      <c r="H37" s="57"/>
       <c r="I37" s="57"/>
       <c r="J37" s="72"/>
       <c r="K37" s="54"/>
@@ -37689,49 +37649,49 @@
       <c r="N37" s="60"/>
       <c r="O37" s="54"/>
     </row>
-    <row r="38" spans="1:15" s="322" customFormat="1" ht="21" customHeight="1">
-      <c r="A38" s="59"/>
-      <c r="B38" s="59"/>
-      <c r="C38" s="60"/>
+    <row r="38" spans="1:15" s="318" customFormat="1" ht="21" customHeight="1">
+      <c r="A38" s="53"/>
+      <c r="B38" s="53"/>
+      <c r="C38" s="54"/>
       <c r="D38" s="57"/>
       <c r="E38" s="57"/>
-      <c r="F38" s="75"/>
-      <c r="G38" s="57"/>
-      <c r="H38" s="60"/>
+      <c r="F38" s="72"/>
+      <c r="G38" s="54"/>
+      <c r="H38" s="54"/>
       <c r="I38" s="57"/>
-      <c r="J38" s="75"/>
-      <c r="K38" s="60"/>
-      <c r="L38" s="75"/>
-      <c r="M38" s="75"/>
+      <c r="J38" s="72"/>
+      <c r="K38" s="54"/>
+      <c r="L38" s="72"/>
+      <c r="M38" s="72"/>
       <c r="N38" s="60"/>
-      <c r="O38" s="60"/>
+      <c r="O38" s="54"/>
     </row>
     <row r="39" spans="1:15" s="322" customFormat="1" ht="21" customHeight="1">
-      <c r="A39" s="291"/>
-      <c r="B39" s="291"/>
-      <c r="C39" s="292"/>
-      <c r="D39" s="260"/>
-      <c r="E39" s="259"/>
-      <c r="F39" s="293"/>
-      <c r="G39" s="259"/>
-      <c r="H39" s="259"/>
-      <c r="I39" s="259"/>
-      <c r="J39" s="293"/>
-      <c r="K39" s="292"/>
-      <c r="L39" s="293"/>
-      <c r="M39" s="293"/>
-      <c r="N39" s="274"/>
-      <c r="O39" s="274"/>
+      <c r="A39" s="59"/>
+      <c r="B39" s="59"/>
+      <c r="C39" s="60"/>
+      <c r="D39" s="57"/>
+      <c r="E39" s="57"/>
+      <c r="F39" s="75"/>
+      <c r="G39" s="57"/>
+      <c r="H39" s="60"/>
+      <c r="I39" s="57"/>
+      <c r="J39" s="75"/>
+      <c r="K39" s="60"/>
+      <c r="L39" s="75"/>
+      <c r="M39" s="75"/>
+      <c r="N39" s="60"/>
+      <c r="O39" s="60"/>
     </row>
     <row r="40" spans="1:15" s="322" customFormat="1" ht="21" customHeight="1">
       <c r="A40" s="291"/>
       <c r="B40" s="291"/>
       <c r="C40" s="292"/>
-      <c r="D40" s="259"/>
+      <c r="D40" s="260"/>
       <c r="E40" s="259"/>
       <c r="F40" s="293"/>
-      <c r="G40" s="292"/>
-      <c r="H40" s="292"/>
+      <c r="G40" s="259"/>
+      <c r="H40" s="259"/>
       <c r="I40" s="259"/>
       <c r="J40" s="293"/>
       <c r="K40" s="292"/>
@@ -37758,38 +37718,38 @@
       <c r="O41" s="274"/>
     </row>
     <row r="42" spans="1:15" s="322" customFormat="1" ht="21" customHeight="1">
-      <c r="A42" s="273"/>
-      <c r="B42" s="273"/>
-      <c r="C42" s="274"/>
+      <c r="A42" s="291"/>
+      <c r="B42" s="291"/>
+      <c r="C42" s="292"/>
       <c r="D42" s="259"/>
       <c r="E42" s="259"/>
-      <c r="F42" s="258"/>
-      <c r="G42" s="259"/>
-      <c r="H42" s="274"/>
+      <c r="F42" s="293"/>
+      <c r="G42" s="292"/>
+      <c r="H42" s="292"/>
       <c r="I42" s="259"/>
-      <c r="J42" s="258"/>
-      <c r="K42" s="274"/>
-      <c r="L42" s="258"/>
-      <c r="M42" s="258"/>
+      <c r="J42" s="293"/>
+      <c r="K42" s="292"/>
+      <c r="L42" s="293"/>
+      <c r="M42" s="293"/>
       <c r="N42" s="274"/>
       <c r="O42" s="274"/>
     </row>
-    <row r="43" spans="1:15" s="318" customFormat="1" ht="21" customHeight="1">
-      <c r="A43" s="53"/>
-      <c r="B43" s="53"/>
-      <c r="C43" s="57"/>
-      <c r="D43" s="57"/>
-      <c r="E43" s="57"/>
-      <c r="F43" s="102"/>
-      <c r="G43" s="54"/>
-      <c r="H43" s="54"/>
-      <c r="I43" s="72"/>
-      <c r="J43" s="72"/>
-      <c r="K43" s="54"/>
-      <c r="L43" s="72"/>
-      <c r="M43" s="72"/>
-      <c r="N43" s="60"/>
-      <c r="O43" s="54"/>
+    <row r="43" spans="1:15" s="322" customFormat="1" ht="21" customHeight="1">
+      <c r="A43" s="273"/>
+      <c r="B43" s="273"/>
+      <c r="C43" s="274"/>
+      <c r="D43" s="259"/>
+      <c r="E43" s="259"/>
+      <c r="F43" s="258"/>
+      <c r="G43" s="259"/>
+      <c r="H43" s="274"/>
+      <c r="I43" s="259"/>
+      <c r="J43" s="258"/>
+      <c r="K43" s="274"/>
+      <c r="L43" s="258"/>
+      <c r="M43" s="258"/>
+      <c r="N43" s="274"/>
+      <c r="O43" s="274"/>
     </row>
     <row r="44" spans="1:15" s="318" customFormat="1" ht="21" customHeight="1">
       <c r="A44" s="53"/>
@@ -37797,7 +37757,7 @@
       <c r="C44" s="57"/>
       <c r="D44" s="57"/>
       <c r="E44" s="57"/>
-      <c r="F44" s="72"/>
+      <c r="F44" s="102"/>
       <c r="G44" s="54"/>
       <c r="H44" s="54"/>
       <c r="I44" s="72"/>
@@ -37899,7 +37859,7 @@
       <c r="C50" s="57"/>
       <c r="D50" s="57"/>
       <c r="E50" s="57"/>
-      <c r="F50" s="102"/>
+      <c r="F50" s="72"/>
       <c r="G50" s="54"/>
       <c r="H50" s="54"/>
       <c r="I50" s="72"/>
@@ -37916,10 +37876,10 @@
       <c r="C51" s="57"/>
       <c r="D51" s="57"/>
       <c r="E51" s="57"/>
-      <c r="F51" s="72"/>
-      <c r="G51" s="57"/>
-      <c r="H51" s="57"/>
-      <c r="I51" s="102"/>
+      <c r="F51" s="102"/>
+      <c r="G51" s="54"/>
+      <c r="H51" s="54"/>
+      <c r="I51" s="72"/>
       <c r="J51" s="72"/>
       <c r="K51" s="54"/>
       <c r="L51" s="72"/>
@@ -37934,9 +37894,9 @@
       <c r="D52" s="57"/>
       <c r="E52" s="57"/>
       <c r="F52" s="72"/>
-      <c r="G52" s="54"/>
-      <c r="H52" s="54"/>
-      <c r="I52" s="72"/>
+      <c r="G52" s="57"/>
+      <c r="H52" s="57"/>
+      <c r="I52" s="102"/>
       <c r="J52" s="72"/>
       <c r="K52" s="54"/>
       <c r="L52" s="72"/>
@@ -37946,35 +37906,35 @@
     </row>
     <row r="53" spans="1:15" s="318" customFormat="1" ht="21" customHeight="1">
       <c r="A53" s="53"/>
-      <c r="B53" s="111"/>
+      <c r="B53" s="53"/>
       <c r="C53" s="57"/>
-      <c r="D53" s="73"/>
-      <c r="E53" s="73"/>
-      <c r="F53" s="112"/>
-      <c r="G53" s="73"/>
-      <c r="H53" s="73"/>
-      <c r="I53" s="112"/>
-      <c r="J53" s="112"/>
-      <c r="K53" s="73"/>
-      <c r="L53" s="112"/>
-      <c r="M53" s="112"/>
+      <c r="D53" s="57"/>
+      <c r="E53" s="57"/>
+      <c r="F53" s="72"/>
+      <c r="G53" s="54"/>
+      <c r="H53" s="54"/>
+      <c r="I53" s="72"/>
+      <c r="J53" s="72"/>
+      <c r="K53" s="54"/>
+      <c r="L53" s="72"/>
+      <c r="M53" s="72"/>
       <c r="N53" s="60"/>
       <c r="O53" s="54"/>
     </row>
     <row r="54" spans="1:15" s="318" customFormat="1" ht="21" customHeight="1">
       <c r="A54" s="53"/>
-      <c r="B54" s="53"/>
+      <c r="B54" s="111"/>
       <c r="C54" s="57"/>
-      <c r="D54" s="57"/>
-      <c r="E54" s="57"/>
-      <c r="F54" s="102"/>
-      <c r="G54" s="54"/>
-      <c r="H54" s="54"/>
-      <c r="I54" s="72"/>
-      <c r="J54" s="72"/>
-      <c r="K54" s="54"/>
-      <c r="L54" s="72"/>
-      <c r="M54" s="72"/>
+      <c r="D54" s="73"/>
+      <c r="E54" s="73"/>
+      <c r="F54" s="112"/>
+      <c r="G54" s="73"/>
+      <c r="H54" s="73"/>
+      <c r="I54" s="112"/>
+      <c r="J54" s="112"/>
+      <c r="K54" s="73"/>
+      <c r="L54" s="112"/>
+      <c r="M54" s="112"/>
       <c r="N54" s="60"/>
       <c r="O54" s="54"/>
     </row>
@@ -38031,69 +37991,69 @@
     </row>
     <row r="58" spans="1:15" s="318" customFormat="1" ht="21" customHeight="1">
       <c r="A58" s="53"/>
-      <c r="B58" s="111"/>
+      <c r="B58" s="53"/>
       <c r="C58" s="57"/>
-      <c r="D58" s="73"/>
-      <c r="E58" s="73"/>
-      <c r="F58" s="112"/>
-      <c r="G58" s="73"/>
-      <c r="H58" s="73"/>
-      <c r="I58" s="112"/>
-      <c r="J58" s="112"/>
-      <c r="K58" s="73"/>
-      <c r="L58" s="112"/>
-      <c r="M58" s="112"/>
+      <c r="D58" s="57"/>
+      <c r="E58" s="57"/>
+      <c r="F58" s="102"/>
+      <c r="G58" s="54"/>
+      <c r="H58" s="54"/>
+      <c r="I58" s="72"/>
+      <c r="J58" s="72"/>
+      <c r="K58" s="54"/>
+      <c r="L58" s="72"/>
+      <c r="M58" s="72"/>
       <c r="N58" s="60"/>
       <c r="O58" s="54"/>
     </row>
     <row r="59" spans="1:15" s="318" customFormat="1" ht="21" customHeight="1">
       <c r="A59" s="53"/>
-      <c r="B59" s="53"/>
-      <c r="C59" s="54"/>
-      <c r="D59" s="54"/>
-      <c r="E59" s="54"/>
-      <c r="F59" s="72"/>
-      <c r="G59" s="54"/>
-      <c r="H59" s="54"/>
-      <c r="I59" s="72"/>
-      <c r="J59" s="72"/>
-      <c r="K59" s="54"/>
-      <c r="L59" s="72"/>
-      <c r="M59" s="72"/>
+      <c r="B59" s="111"/>
+      <c r="C59" s="57"/>
+      <c r="D59" s="73"/>
+      <c r="E59" s="73"/>
+      <c r="F59" s="112"/>
+      <c r="G59" s="73"/>
+      <c r="H59" s="73"/>
+      <c r="I59" s="112"/>
+      <c r="J59" s="112"/>
+      <c r="K59" s="73"/>
+      <c r="L59" s="112"/>
+      <c r="M59" s="112"/>
       <c r="N59" s="60"/>
       <c r="O59" s="54"/>
     </row>
     <row r="60" spans="1:15" s="318" customFormat="1" ht="21" customHeight="1">
       <c r="A60" s="53"/>
-      <c r="B60" s="111"/>
+      <c r="B60" s="53"/>
       <c r="C60" s="54"/>
-      <c r="D60" s="73"/>
-      <c r="E60" s="73"/>
-      <c r="F60" s="112"/>
-      <c r="G60" s="73"/>
-      <c r="H60" s="73"/>
-      <c r="I60" s="112"/>
-      <c r="J60" s="112"/>
-      <c r="K60" s="73"/>
-      <c r="L60" s="112"/>
-      <c r="M60" s="112"/>
+      <c r="D60" s="54"/>
+      <c r="E60" s="54"/>
+      <c r="F60" s="72"/>
+      <c r="G60" s="54"/>
+      <c r="H60" s="54"/>
+      <c r="I60" s="72"/>
+      <c r="J60" s="72"/>
+      <c r="K60" s="54"/>
+      <c r="L60" s="72"/>
+      <c r="M60" s="72"/>
       <c r="N60" s="60"/>
       <c r="O60" s="54"/>
     </row>
     <row r="61" spans="1:15" s="318" customFormat="1" ht="21" customHeight="1">
       <c r="A61" s="53"/>
-      <c r="B61" s="53"/>
+      <c r="B61" s="111"/>
       <c r="C61" s="54"/>
-      <c r="D61" s="54"/>
-      <c r="E61" s="54"/>
-      <c r="F61" s="72"/>
-      <c r="G61" s="54"/>
-      <c r="H61" s="54"/>
-      <c r="I61" s="72"/>
-      <c r="J61" s="72"/>
-      <c r="K61" s="54"/>
-      <c r="L61" s="72"/>
-      <c r="M61" s="72"/>
+      <c r="D61" s="73"/>
+      <c r="E61" s="73"/>
+      <c r="F61" s="112"/>
+      <c r="G61" s="73"/>
+      <c r="H61" s="73"/>
+      <c r="I61" s="112"/>
+      <c r="J61" s="112"/>
+      <c r="K61" s="73"/>
+      <c r="L61" s="112"/>
+      <c r="M61" s="112"/>
       <c r="N61" s="60"/>
       <c r="O61" s="54"/>
     </row>
@@ -38101,8 +38061,8 @@
       <c r="A62" s="53"/>
       <c r="B62" s="53"/>
       <c r="C62" s="54"/>
-      <c r="D62" s="57"/>
-      <c r="E62" s="57"/>
+      <c r="D62" s="54"/>
+      <c r="E62" s="54"/>
       <c r="F62" s="72"/>
       <c r="G62" s="54"/>
       <c r="H62" s="54"/>
@@ -38118,37 +38078,37 @@
       <c r="A63" s="53"/>
       <c r="B63" s="53"/>
       <c r="C63" s="54"/>
-      <c r="D63" s="54"/>
-      <c r="E63" s="54"/>
+      <c r="D63" s="57"/>
+      <c r="E63" s="57"/>
       <c r="F63" s="72"/>
       <c r="G63" s="54"/>
       <c r="H63" s="54"/>
       <c r="I63" s="72"/>
       <c r="J63" s="72"/>
-      <c r="K63" s="73"/>
+      <c r="K63" s="54"/>
       <c r="L63" s="72"/>
       <c r="M63" s="72"/>
       <c r="N63" s="60"/>
       <c r="O63" s="54"/>
     </row>
     <row r="64" spans="1:15" s="318" customFormat="1" ht="21" customHeight="1">
-      <c r="A64" s="59"/>
-      <c r="B64" s="59"/>
-      <c r="C64" s="60"/>
-      <c r="D64" s="57"/>
-      <c r="E64" s="57"/>
-      <c r="F64" s="75"/>
-      <c r="G64" s="60"/>
-      <c r="H64" s="60"/>
-      <c r="I64" s="75"/>
-      <c r="J64" s="75"/>
-      <c r="K64" s="60"/>
-      <c r="L64" s="112"/>
-      <c r="M64" s="112"/>
+      <c r="A64" s="53"/>
+      <c r="B64" s="53"/>
+      <c r="C64" s="54"/>
+      <c r="D64" s="54"/>
+      <c r="E64" s="54"/>
+      <c r="F64" s="72"/>
+      <c r="G64" s="54"/>
+      <c r="H64" s="54"/>
+      <c r="I64" s="72"/>
+      <c r="J64" s="72"/>
+      <c r="K64" s="73"/>
+      <c r="L64" s="72"/>
+      <c r="M64" s="72"/>
       <c r="N64" s="60"/>
       <c r="O64" s="54"/>
     </row>
-    <row r="65" spans="1:15" s="322" customFormat="1" ht="21" customHeight="1">
+    <row r="65" spans="1:15" s="318" customFormat="1" ht="21" customHeight="1">
       <c r="A65" s="59"/>
       <c r="B65" s="59"/>
       <c r="C65" s="60"/>
@@ -38160,10 +38120,10 @@
       <c r="I65" s="75"/>
       <c r="J65" s="75"/>
       <c r="K65" s="60"/>
-      <c r="L65" s="75"/>
-      <c r="M65" s="75"/>
+      <c r="L65" s="112"/>
+      <c r="M65" s="112"/>
       <c r="N65" s="60"/>
-      <c r="O65" s="60"/>
+      <c r="O65" s="54"/>
     </row>
     <row r="66" spans="1:15" s="322" customFormat="1" ht="21" customHeight="1">
       <c r="A66" s="59"/>
@@ -38228,8 +38188,8 @@
       <c r="I69" s="75"/>
       <c r="J69" s="75"/>
       <c r="K69" s="60"/>
-      <c r="L69" s="112"/>
-      <c r="M69" s="112"/>
+      <c r="L69" s="75"/>
+      <c r="M69" s="75"/>
       <c r="N69" s="60"/>
       <c r="O69" s="60"/>
     </row>
@@ -38250,7 +38210,7 @@
       <c r="N70" s="60"/>
       <c r="O70" s="60"/>
     </row>
-    <row r="71" spans="1:15" s="318" customFormat="1" ht="21" customHeight="1">
+    <row r="71" spans="1:15" s="322" customFormat="1" ht="21" customHeight="1">
       <c r="A71" s="59"/>
       <c r="B71" s="59"/>
       <c r="C71" s="60"/>
@@ -38262,10 +38222,10 @@
       <c r="I71" s="75"/>
       <c r="J71" s="75"/>
       <c r="K71" s="60"/>
-      <c r="L71" s="61"/>
-      <c r="M71" s="61"/>
+      <c r="L71" s="112"/>
+      <c r="M71" s="112"/>
       <c r="N71" s="60"/>
-      <c r="O71" s="54"/>
+      <c r="O71" s="60"/>
     </row>
     <row r="72" spans="1:15" s="318" customFormat="1" ht="21" customHeight="1">
       <c r="A72" s="59"/>
@@ -38335,7 +38295,7 @@
       <c r="N75" s="60"/>
       <c r="O75" s="54"/>
     </row>
-    <row r="76" spans="1:15" s="322" customFormat="1" ht="21" customHeight="1">
+    <row r="76" spans="1:15" s="318" customFormat="1" ht="21" customHeight="1">
       <c r="A76" s="59"/>
       <c r="B76" s="59"/>
       <c r="C76" s="60"/>
@@ -38347,40 +38307,40 @@
       <c r="I76" s="75"/>
       <c r="J76" s="75"/>
       <c r="K76" s="60"/>
-      <c r="L76" s="75"/>
-      <c r="M76" s="75"/>
+      <c r="L76" s="61"/>
+      <c r="M76" s="61"/>
       <c r="N76" s="60"/>
-      <c r="O76" s="60"/>
-    </row>
-    <row r="77" spans="1:15" s="318" customFormat="1" ht="21" customHeight="1">
-      <c r="A77" s="53"/>
-      <c r="B77" s="53"/>
-      <c r="C77" s="54"/>
+      <c r="O76" s="54"/>
+    </row>
+    <row r="77" spans="1:15" s="322" customFormat="1" ht="21" customHeight="1">
+      <c r="A77" s="59"/>
+      <c r="B77" s="59"/>
+      <c r="C77" s="60"/>
       <c r="D77" s="57"/>
       <c r="E77" s="57"/>
-      <c r="F77" s="72"/>
-      <c r="G77" s="54"/>
-      <c r="H77" s="54"/>
-      <c r="I77" s="72"/>
-      <c r="J77" s="72"/>
-      <c r="K77" s="54"/>
-      <c r="L77" s="61"/>
-      <c r="M77" s="61"/>
+      <c r="F77" s="75"/>
+      <c r="G77" s="60"/>
+      <c r="H77" s="60"/>
+      <c r="I77" s="75"/>
+      <c r="J77" s="75"/>
+      <c r="K77" s="60"/>
+      <c r="L77" s="75"/>
+      <c r="M77" s="75"/>
       <c r="N77" s="60"/>
-      <c r="O77" s="54"/>
+      <c r="O77" s="60"/>
     </row>
     <row r="78" spans="1:15" s="318" customFormat="1" ht="21" customHeight="1">
-      <c r="A78" s="59"/>
-      <c r="B78" s="59"/>
-      <c r="C78" s="60"/>
-      <c r="D78" s="60"/>
-      <c r="E78" s="60"/>
-      <c r="F78" s="75"/>
-      <c r="G78" s="60"/>
-      <c r="H78" s="60"/>
-      <c r="I78" s="75"/>
-      <c r="J78" s="75"/>
-      <c r="K78" s="60"/>
+      <c r="A78" s="53"/>
+      <c r="B78" s="53"/>
+      <c r="C78" s="54"/>
+      <c r="D78" s="57"/>
+      <c r="E78" s="57"/>
+      <c r="F78" s="72"/>
+      <c r="G78" s="54"/>
+      <c r="H78" s="54"/>
+      <c r="I78" s="72"/>
+      <c r="J78" s="72"/>
+      <c r="K78" s="54"/>
       <c r="L78" s="61"/>
       <c r="M78" s="61"/>
       <c r="N78" s="60"/>
@@ -38388,7 +38348,7 @@
     </row>
     <row r="79" spans="1:15" s="318" customFormat="1" ht="21" customHeight="1">
       <c r="A79" s="59"/>
-      <c r="B79" s="111"/>
+      <c r="B79" s="59"/>
       <c r="C79" s="60"/>
       <c r="D79" s="60"/>
       <c r="E79" s="60"/>
@@ -38405,7 +38365,7 @@
     </row>
     <row r="80" spans="1:15" s="318" customFormat="1" ht="21" customHeight="1">
       <c r="A80" s="59"/>
-      <c r="B80" s="59"/>
+      <c r="B80" s="111"/>
       <c r="C80" s="60"/>
       <c r="D80" s="60"/>
       <c r="E80" s="60"/>
@@ -38422,7 +38382,7 @@
     </row>
     <row r="81" spans="1:15" s="318" customFormat="1" ht="21" customHeight="1">
       <c r="A81" s="59"/>
-      <c r="B81" s="111"/>
+      <c r="B81" s="59"/>
       <c r="C81" s="60"/>
       <c r="D81" s="60"/>
       <c r="E81" s="60"/>
@@ -38439,7 +38399,7 @@
     </row>
     <row r="82" spans="1:15" s="318" customFormat="1" ht="21" customHeight="1">
       <c r="A82" s="59"/>
-      <c r="B82" s="59"/>
+      <c r="B82" s="111"/>
       <c r="C82" s="60"/>
       <c r="D82" s="60"/>
       <c r="E82" s="60"/>
@@ -38456,14 +38416,14 @@
     </row>
     <row r="83" spans="1:15" s="318" customFormat="1" ht="21" customHeight="1">
       <c r="A83" s="59"/>
-      <c r="B83" s="111"/>
+      <c r="B83" s="59"/>
       <c r="C83" s="60"/>
       <c r="D83" s="60"/>
       <c r="E83" s="60"/>
       <c r="F83" s="75"/>
       <c r="G83" s="60"/>
       <c r="H83" s="60"/>
-      <c r="I83" s="60"/>
+      <c r="I83" s="75"/>
       <c r="J83" s="75"/>
       <c r="K83" s="60"/>
       <c r="L83" s="61"/>
@@ -38472,34 +38432,34 @@
       <c r="O83" s="54"/>
     </row>
     <row r="84" spans="1:15" s="318" customFormat="1" ht="21" customHeight="1">
-      <c r="A84" s="53"/>
+      <c r="A84" s="59"/>
       <c r="B84" s="111"/>
-      <c r="C84" s="54"/>
-      <c r="D84" s="73"/>
-      <c r="E84" s="73"/>
-      <c r="F84" s="112"/>
-      <c r="G84" s="73"/>
-      <c r="H84" s="73"/>
-      <c r="I84" s="112"/>
-      <c r="J84" s="112"/>
-      <c r="K84" s="73"/>
+      <c r="C84" s="60"/>
+      <c r="D84" s="60"/>
+      <c r="E84" s="60"/>
+      <c r="F84" s="75"/>
+      <c r="G84" s="60"/>
+      <c r="H84" s="60"/>
+      <c r="I84" s="60"/>
+      <c r="J84" s="75"/>
+      <c r="K84" s="60"/>
       <c r="L84" s="61"/>
       <c r="M84" s="61"/>
       <c r="N84" s="60"/>
       <c r="O84" s="54"/>
     </row>
     <row r="85" spans="1:15" s="318" customFormat="1" ht="21" customHeight="1">
-      <c r="A85" s="59"/>
-      <c r="B85" s="75"/>
-      <c r="C85" s="60"/>
-      <c r="D85" s="57"/>
-      <c r="E85" s="57"/>
-      <c r="F85" s="75"/>
-      <c r="G85" s="60"/>
-      <c r="H85" s="60"/>
-      <c r="I85" s="60"/>
-      <c r="J85" s="75"/>
-      <c r="K85" s="60"/>
+      <c r="A85" s="53"/>
+      <c r="B85" s="111"/>
+      <c r="C85" s="54"/>
+      <c r="D85" s="73"/>
+      <c r="E85" s="73"/>
+      <c r="F85" s="112"/>
+      <c r="G85" s="73"/>
+      <c r="H85" s="73"/>
+      <c r="I85" s="112"/>
+      <c r="J85" s="112"/>
+      <c r="K85" s="73"/>
       <c r="L85" s="61"/>
       <c r="M85" s="61"/>
       <c r="N85" s="60"/>
@@ -38514,7 +38474,7 @@
       <c r="F86" s="75"/>
       <c r="G86" s="60"/>
       <c r="H86" s="60"/>
-      <c r="I86" s="75"/>
+      <c r="I86" s="60"/>
       <c r="J86" s="75"/>
       <c r="K86" s="60"/>
       <c r="L86" s="61"/>
@@ -38558,16 +38518,16 @@
     </row>
     <row r="89" spans="1:15" s="318" customFormat="1" ht="21" customHeight="1">
       <c r="A89" s="59"/>
-      <c r="B89" s="111"/>
+      <c r="B89" s="75"/>
       <c r="C89" s="60"/>
-      <c r="D89" s="73"/>
-      <c r="E89" s="73"/>
-      <c r="F89" s="112"/>
-      <c r="G89" s="73"/>
-      <c r="H89" s="73"/>
-      <c r="I89" s="112"/>
-      <c r="J89" s="112"/>
-      <c r="K89" s="73"/>
+      <c r="D89" s="57"/>
+      <c r="E89" s="57"/>
+      <c r="F89" s="75"/>
+      <c r="G89" s="60"/>
+      <c r="H89" s="60"/>
+      <c r="I89" s="75"/>
+      <c r="J89" s="75"/>
+      <c r="K89" s="60"/>
       <c r="L89" s="61"/>
       <c r="M89" s="61"/>
       <c r="N89" s="60"/>
@@ -38592,16 +38552,16 @@
     </row>
     <row r="91" spans="1:15" s="318" customFormat="1" ht="21" customHeight="1">
       <c r="A91" s="59"/>
-      <c r="B91" s="59"/>
+      <c r="B91" s="111"/>
       <c r="C91" s="60"/>
-      <c r="D91" s="60"/>
-      <c r="E91" s="60"/>
-      <c r="F91" s="75"/>
-      <c r="G91" s="60"/>
-      <c r="H91" s="60"/>
-      <c r="I91" s="75"/>
-      <c r="J91" s="75"/>
-      <c r="K91" s="60"/>
+      <c r="D91" s="73"/>
+      <c r="E91" s="73"/>
+      <c r="F91" s="112"/>
+      <c r="G91" s="73"/>
+      <c r="H91" s="73"/>
+      <c r="I91" s="112"/>
+      <c r="J91" s="112"/>
+      <c r="K91" s="73"/>
       <c r="L91" s="61"/>
       <c r="M91" s="61"/>
       <c r="N91" s="60"/>
@@ -38747,8 +38707,8 @@
       <c r="A100" s="59"/>
       <c r="B100" s="59"/>
       <c r="C100" s="60"/>
-      <c r="D100" s="57"/>
-      <c r="E100" s="57"/>
+      <c r="D100" s="60"/>
+      <c r="E100" s="60"/>
       <c r="F100" s="75"/>
       <c r="G100" s="60"/>
       <c r="H100" s="60"/>
@@ -38760,22 +38720,22 @@
       <c r="N100" s="60"/>
       <c r="O100" s="54"/>
     </row>
-    <row r="101" spans="1:15" s="340" customFormat="1" ht="21" customHeight="1">
-      <c r="A101" s="108"/>
-      <c r="B101" s="108"/>
-      <c r="C101" s="110"/>
-      <c r="D101" s="110"/>
-      <c r="E101" s="110"/>
-      <c r="F101" s="109"/>
-      <c r="G101" s="110"/>
-      <c r="H101" s="110"/>
-      <c r="I101" s="109"/>
-      <c r="J101" s="109"/>
-      <c r="K101" s="110"/>
-      <c r="L101" s="109"/>
-      <c r="M101" s="109"/>
+    <row r="101" spans="1:15" s="318" customFormat="1" ht="21" customHeight="1">
+      <c r="A101" s="59"/>
+      <c r="B101" s="59"/>
+      <c r="C101" s="60"/>
+      <c r="D101" s="57"/>
+      <c r="E101" s="57"/>
+      <c r="F101" s="75"/>
+      <c r="G101" s="60"/>
+      <c r="H101" s="60"/>
+      <c r="I101" s="75"/>
+      <c r="J101" s="75"/>
+      <c r="K101" s="60"/>
+      <c r="L101" s="61"/>
+      <c r="M101" s="61"/>
       <c r="N101" s="60"/>
-      <c r="O101" s="110"/>
+      <c r="O101" s="54"/>
     </row>
     <row r="102" spans="1:15" s="340" customFormat="1" ht="21" customHeight="1">
       <c r="A102" s="108"/>
@@ -38794,29 +38754,29 @@
       <c r="N102" s="60"/>
       <c r="O102" s="110"/>
     </row>
-    <row r="103" spans="1:15" s="318" customFormat="1" ht="21" customHeight="1">
-      <c r="A103" s="53"/>
-      <c r="B103" s="53"/>
-      <c r="C103" s="57"/>
-      <c r="D103" s="73"/>
-      <c r="E103" s="54"/>
-      <c r="F103" s="72"/>
-      <c r="G103" s="54"/>
-      <c r="H103" s="54"/>
-      <c r="I103" s="54"/>
-      <c r="J103" s="72"/>
-      <c r="K103" s="54"/>
-      <c r="L103" s="61"/>
-      <c r="M103" s="61"/>
+    <row r="103" spans="1:15" s="340" customFormat="1" ht="21" customHeight="1">
+      <c r="A103" s="108"/>
+      <c r="B103" s="108"/>
+      <c r="C103" s="110"/>
+      <c r="D103" s="110"/>
+      <c r="E103" s="110"/>
+      <c r="F103" s="109"/>
+      <c r="G103" s="110"/>
+      <c r="H103" s="110"/>
+      <c r="I103" s="109"/>
+      <c r="J103" s="109"/>
+      <c r="K103" s="110"/>
+      <c r="L103" s="109"/>
+      <c r="M103" s="109"/>
       <c r="N103" s="60"/>
-      <c r="O103" s="54"/>
+      <c r="O103" s="110"/>
     </row>
     <row r="104" spans="1:15" s="318" customFormat="1" ht="21" customHeight="1">
       <c r="A104" s="53"/>
       <c r="B104" s="53"/>
-      <c r="C104" s="54"/>
+      <c r="C104" s="57"/>
       <c r="D104" s="73"/>
-      <c r="E104" s="57"/>
+      <c r="E104" s="54"/>
       <c r="F104" s="72"/>
       <c r="G104" s="54"/>
       <c r="H104" s="54"/>
@@ -38835,9 +38795,9 @@
       <c r="D105" s="73"/>
       <c r="E105" s="57"/>
       <c r="F105" s="72"/>
-      <c r="G105" s="57"/>
-      <c r="H105" s="57"/>
-      <c r="I105" s="57"/>
+      <c r="G105" s="54"/>
+      <c r="H105" s="54"/>
+      <c r="I105" s="54"/>
       <c r="J105" s="72"/>
       <c r="K105" s="54"/>
       <c r="L105" s="61"/>
@@ -38847,16 +38807,16 @@
     </row>
     <row r="106" spans="1:15" s="318" customFormat="1" ht="21" customHeight="1">
       <c r="A106" s="53"/>
-      <c r="B106" s="111"/>
+      <c r="B106" s="53"/>
       <c r="C106" s="54"/>
       <c r="D106" s="73"/>
-      <c r="E106" s="73"/>
-      <c r="F106" s="112"/>
-      <c r="G106" s="73"/>
-      <c r="H106" s="73"/>
-      <c r="I106" s="112"/>
-      <c r="J106" s="112"/>
-      <c r="K106" s="73"/>
+      <c r="E106" s="57"/>
+      <c r="F106" s="72"/>
+      <c r="G106" s="57"/>
+      <c r="H106" s="57"/>
+      <c r="I106" s="57"/>
+      <c r="J106" s="72"/>
+      <c r="K106" s="54"/>
       <c r="L106" s="61"/>
       <c r="M106" s="61"/>
       <c r="N106" s="60"/>
@@ -38866,14 +38826,14 @@
       <c r="A107" s="53"/>
       <c r="B107" s="111"/>
       <c r="C107" s="54"/>
-      <c r="D107" s="104"/>
-      <c r="E107" s="57"/>
-      <c r="F107" s="61"/>
-      <c r="G107" s="54"/>
-      <c r="H107" s="54"/>
-      <c r="I107" s="54"/>
-      <c r="J107" s="61"/>
-      <c r="K107" s="54"/>
+      <c r="D107" s="73"/>
+      <c r="E107" s="73"/>
+      <c r="F107" s="112"/>
+      <c r="G107" s="73"/>
+      <c r="H107" s="73"/>
+      <c r="I107" s="112"/>
+      <c r="J107" s="112"/>
+      <c r="K107" s="73"/>
       <c r="L107" s="61"/>
       <c r="M107" s="61"/>
       <c r="N107" s="60"/>
@@ -38881,15 +38841,15 @@
     </row>
     <row r="108" spans="1:15" s="318" customFormat="1" ht="21" customHeight="1">
       <c r="A108" s="53"/>
-      <c r="B108" s="53"/>
+      <c r="B108" s="111"/>
       <c r="C108" s="54"/>
-      <c r="D108" s="73"/>
+      <c r="D108" s="104"/>
       <c r="E108" s="57"/>
-      <c r="F108" s="72"/>
-      <c r="G108" s="57"/>
-      <c r="H108" s="57"/>
-      <c r="I108" s="57"/>
-      <c r="J108" s="72"/>
+      <c r="F108" s="61"/>
+      <c r="G108" s="54"/>
+      <c r="H108" s="54"/>
+      <c r="I108" s="54"/>
+      <c r="J108" s="61"/>
       <c r="K108" s="54"/>
       <c r="L108" s="61"/>
       <c r="M108" s="61"/>
@@ -38900,11 +38860,11 @@
       <c r="A109" s="53"/>
       <c r="B109" s="53"/>
       <c r="C109" s="54"/>
-      <c r="D109" s="57"/>
+      <c r="D109" s="73"/>
       <c r="E109" s="57"/>
       <c r="F109" s="72"/>
-      <c r="G109" s="54"/>
-      <c r="H109" s="54"/>
+      <c r="G109" s="57"/>
+      <c r="H109" s="57"/>
       <c r="I109" s="57"/>
       <c r="J109" s="72"/>
       <c r="K109" s="54"/>
@@ -38917,35 +38877,35 @@
       <c r="A110" s="53"/>
       <c r="B110" s="53"/>
       <c r="C110" s="54"/>
-      <c r="D110" s="54"/>
-      <c r="E110" s="54"/>
+      <c r="D110" s="57"/>
+      <c r="E110" s="57"/>
       <c r="F110" s="72"/>
       <c r="G110" s="54"/>
       <c r="H110" s="54"/>
-      <c r="I110" s="72"/>
+      <c r="I110" s="57"/>
       <c r="J110" s="72"/>
       <c r="K110" s="54"/>
-      <c r="L110" s="72"/>
-      <c r="M110" s="72"/>
+      <c r="L110" s="61"/>
+      <c r="M110" s="61"/>
       <c r="N110" s="60"/>
       <c r="O110" s="54"/>
     </row>
-    <row r="111" spans="1:15" s="322" customFormat="1" ht="21" customHeight="1">
-      <c r="A111" s="59"/>
-      <c r="B111" s="59"/>
-      <c r="C111" s="60"/>
-      <c r="D111" s="60"/>
-      <c r="E111" s="60"/>
-      <c r="F111" s="75"/>
-      <c r="G111" s="60"/>
-      <c r="H111" s="60"/>
-      <c r="I111" s="75"/>
-      <c r="J111" s="75"/>
-      <c r="K111" s="60"/>
-      <c r="L111" s="75"/>
-      <c r="M111" s="75"/>
+    <row r="111" spans="1:15" s="318" customFormat="1" ht="21" customHeight="1">
+      <c r="A111" s="53"/>
+      <c r="B111" s="53"/>
+      <c r="C111" s="54"/>
+      <c r="D111" s="54"/>
+      <c r="E111" s="54"/>
+      <c r="F111" s="72"/>
+      <c r="G111" s="54"/>
+      <c r="H111" s="54"/>
+      <c r="I111" s="72"/>
+      <c r="J111" s="72"/>
+      <c r="K111" s="54"/>
+      <c r="L111" s="72"/>
+      <c r="M111" s="72"/>
       <c r="N111" s="60"/>
-      <c r="O111" s="60"/>
+      <c r="O111" s="54"/>
     </row>
     <row r="112" spans="1:15" s="322" customFormat="1" ht="21" customHeight="1">
       <c r="A112" s="59"/>
@@ -38966,35 +38926,35 @@
     </row>
     <row r="113" spans="1:15" s="322" customFormat="1" ht="21" customHeight="1">
       <c r="A113" s="59"/>
-      <c r="B113" s="111"/>
+      <c r="B113" s="59"/>
       <c r="C113" s="60"/>
-      <c r="D113" s="73"/>
-      <c r="E113" s="73"/>
-      <c r="F113" s="112"/>
-      <c r="G113" s="73"/>
-      <c r="H113" s="73"/>
-      <c r="I113" s="112"/>
-      <c r="J113" s="112"/>
-      <c r="K113" s="73"/>
-      <c r="L113" s="112"/>
-      <c r="M113" s="112"/>
+      <c r="D113" s="60"/>
+      <c r="E113" s="60"/>
+      <c r="F113" s="75"/>
+      <c r="G113" s="60"/>
+      <c r="H113" s="60"/>
+      <c r="I113" s="75"/>
+      <c r="J113" s="75"/>
+      <c r="K113" s="60"/>
+      <c r="L113" s="75"/>
+      <c r="M113" s="75"/>
       <c r="N113" s="60"/>
       <c r="O113" s="60"/>
     </row>
     <row r="114" spans="1:15" s="322" customFormat="1" ht="21" customHeight="1">
       <c r="A114" s="59"/>
-      <c r="B114" s="59"/>
+      <c r="B114" s="111"/>
       <c r="C114" s="60"/>
       <c r="D114" s="73"/>
-      <c r="E114" s="57"/>
-      <c r="F114" s="75"/>
-      <c r="G114" s="57"/>
-      <c r="H114" s="57"/>
-      <c r="I114" s="57"/>
-      <c r="J114" s="75"/>
-      <c r="K114" s="60"/>
-      <c r="L114" s="75"/>
-      <c r="M114" s="75"/>
+      <c r="E114" s="73"/>
+      <c r="F114" s="112"/>
+      <c r="G114" s="73"/>
+      <c r="H114" s="73"/>
+      <c r="I114" s="112"/>
+      <c r="J114" s="112"/>
+      <c r="K114" s="73"/>
+      <c r="L114" s="112"/>
+      <c r="M114" s="112"/>
       <c r="N114" s="60"/>
       <c r="O114" s="60"/>
     </row>
@@ -39003,7 +38963,7 @@
       <c r="B115" s="59"/>
       <c r="C115" s="60"/>
       <c r="D115" s="73"/>
-      <c r="E115" s="208"/>
+      <c r="E115" s="57"/>
       <c r="F115" s="75"/>
       <c r="G115" s="57"/>
       <c r="H115" s="57"/>
@@ -39020,11 +38980,11 @@
       <c r="B116" s="59"/>
       <c r="C116" s="60"/>
       <c r="D116" s="73"/>
-      <c r="E116" s="57"/>
+      <c r="E116" s="208"/>
       <c r="F116" s="75"/>
       <c r="G116" s="57"/>
       <c r="H116" s="57"/>
-      <c r="I116" s="75"/>
+      <c r="I116" s="57"/>
       <c r="J116" s="75"/>
       <c r="K116" s="60"/>
       <c r="L116" s="75"/>
@@ -39035,12 +38995,12 @@
     <row r="117" spans="1:15" s="322" customFormat="1" ht="21" customHeight="1">
       <c r="A117" s="59"/>
       <c r="B117" s="59"/>
-      <c r="C117" s="57"/>
-      <c r="D117" s="57"/>
+      <c r="C117" s="60"/>
+      <c r="D117" s="73"/>
       <c r="E117" s="57"/>
-      <c r="F117" s="102"/>
-      <c r="G117" s="60"/>
-      <c r="H117" s="60"/>
+      <c r="F117" s="75"/>
+      <c r="G117" s="57"/>
+      <c r="H117" s="57"/>
       <c r="I117" s="75"/>
       <c r="J117" s="75"/>
       <c r="K117" s="60"/>
@@ -39083,27 +39043,27 @@
       <c r="N119" s="60"/>
       <c r="O119" s="60"/>
     </row>
-    <row r="120" spans="1:15" s="318" customFormat="1" ht="21" customHeight="1">
-      <c r="A120" s="291"/>
-      <c r="B120" s="291"/>
-      <c r="C120" s="259"/>
-      <c r="D120" s="292"/>
-      <c r="E120" s="292"/>
-      <c r="F120" s="293"/>
-      <c r="G120" s="292"/>
-      <c r="H120" s="292"/>
-      <c r="I120" s="293"/>
-      <c r="J120" s="293"/>
-      <c r="K120" s="292"/>
-      <c r="L120" s="293"/>
-      <c r="M120" s="293"/>
-      <c r="N120" s="274"/>
-      <c r="O120" s="292"/>
+    <row r="120" spans="1:15" s="322" customFormat="1" ht="21" customHeight="1">
+      <c r="A120" s="59"/>
+      <c r="B120" s="59"/>
+      <c r="C120" s="57"/>
+      <c r="D120" s="57"/>
+      <c r="E120" s="57"/>
+      <c r="F120" s="102"/>
+      <c r="G120" s="60"/>
+      <c r="H120" s="60"/>
+      <c r="I120" s="75"/>
+      <c r="J120" s="75"/>
+      <c r="K120" s="60"/>
+      <c r="L120" s="75"/>
+      <c r="M120" s="75"/>
+      <c r="N120" s="60"/>
+      <c r="O120" s="60"/>
     </row>
     <row r="121" spans="1:15" s="318" customFormat="1" ht="21" customHeight="1">
       <c r="A121" s="291"/>
       <c r="B121" s="291"/>
-      <c r="C121" s="292"/>
+      <c r="C121" s="259"/>
       <c r="D121" s="292"/>
       <c r="E121" s="292"/>
       <c r="F121" s="293"/>
@@ -39189,7 +39149,7 @@
       <c r="A126" s="291"/>
       <c r="B126" s="291"/>
       <c r="C126" s="292"/>
-      <c r="D126" s="259"/>
+      <c r="D126" s="292"/>
       <c r="E126" s="292"/>
       <c r="F126" s="293"/>
       <c r="G126" s="292"/>
@@ -39206,12 +39166,12 @@
       <c r="A127" s="291"/>
       <c r="B127" s="291"/>
       <c r="C127" s="292"/>
-      <c r="D127" s="292"/>
+      <c r="D127" s="259"/>
       <c r="E127" s="292"/>
       <c r="F127" s="293"/>
       <c r="G127" s="292"/>
       <c r="H127" s="292"/>
-      <c r="I127" s="292"/>
+      <c r="I127" s="293"/>
       <c r="J127" s="293"/>
       <c r="K127" s="292"/>
       <c r="L127" s="293"/>
@@ -39228,7 +39188,7 @@
       <c r="F128" s="293"/>
       <c r="G128" s="292"/>
       <c r="H128" s="292"/>
-      <c r="I128" s="293"/>
+      <c r="I128" s="292"/>
       <c r="J128" s="293"/>
       <c r="K128" s="292"/>
       <c r="L128" s="293"/>
@@ -39262,7 +39222,7 @@
       <c r="F130" s="293"/>
       <c r="G130" s="292"/>
       <c r="H130" s="292"/>
-      <c r="I130" s="292"/>
+      <c r="I130" s="293"/>
       <c r="J130" s="293"/>
       <c r="K130" s="292"/>
       <c r="L130" s="293"/>
@@ -39270,32 +39230,32 @@
       <c r="N130" s="274"/>
       <c r="O130" s="292"/>
     </row>
-    <row r="131" spans="1:15" s="322" customFormat="1" ht="21" customHeight="1">
-      <c r="A131" s="59"/>
-      <c r="B131" s="341"/>
-      <c r="C131" s="320"/>
-      <c r="D131" s="320"/>
-      <c r="E131" s="320"/>
-      <c r="F131" s="320"/>
-      <c r="G131" s="320"/>
-      <c r="H131" s="320"/>
-      <c r="I131" s="320"/>
-      <c r="J131" s="320"/>
-      <c r="K131" s="320"/>
-      <c r="L131" s="320"/>
-      <c r="M131" s="320"/>
-      <c r="N131" s="60"/>
-      <c r="O131" s="60"/>
+    <row r="131" spans="1:15" s="318" customFormat="1" ht="21" customHeight="1">
+      <c r="A131" s="291"/>
+      <c r="B131" s="291"/>
+      <c r="C131" s="292"/>
+      <c r="D131" s="292"/>
+      <c r="E131" s="292"/>
+      <c r="F131" s="293"/>
+      <c r="G131" s="292"/>
+      <c r="H131" s="292"/>
+      <c r="I131" s="292"/>
+      <c r="J131" s="293"/>
+      <c r="K131" s="292"/>
+      <c r="L131" s="293"/>
+      <c r="M131" s="293"/>
+      <c r="N131" s="274"/>
+      <c r="O131" s="292"/>
     </row>
     <row r="132" spans="1:15" s="322" customFormat="1" ht="21" customHeight="1">
       <c r="A132" s="59"/>
-      <c r="B132" s="59"/>
+      <c r="B132" s="341"/>
       <c r="C132" s="320"/>
-      <c r="D132" s="339"/>
-      <c r="E132" s="339"/>
-      <c r="F132" s="339"/>
-      <c r="G132" s="321"/>
-      <c r="H132" s="339"/>
+      <c r="D132" s="320"/>
+      <c r="E132" s="320"/>
+      <c r="F132" s="320"/>
+      <c r="G132" s="320"/>
+      <c r="H132" s="320"/>
       <c r="I132" s="320"/>
       <c r="J132" s="320"/>
       <c r="K132" s="320"/>
@@ -39363,8 +39323,8 @@
       <c r="E136" s="339"/>
       <c r="F136" s="339"/>
       <c r="G136" s="321"/>
-      <c r="H136" s="60"/>
-      <c r="I136" s="339"/>
+      <c r="H136" s="339"/>
+      <c r="I136" s="320"/>
       <c r="J136" s="320"/>
       <c r="K136" s="320"/>
       <c r="L136" s="320"/>
@@ -39415,7 +39375,7 @@
       <c r="F139" s="339"/>
       <c r="G139" s="321"/>
       <c r="H139" s="60"/>
-      <c r="I139" s="321"/>
+      <c r="I139" s="339"/>
       <c r="J139" s="320"/>
       <c r="K139" s="320"/>
       <c r="L139" s="320"/>
@@ -39432,7 +39392,7 @@
       <c r="F140" s="339"/>
       <c r="G140" s="321"/>
       <c r="H140" s="60"/>
-      <c r="I140" s="339"/>
+      <c r="I140" s="321"/>
       <c r="J140" s="320"/>
       <c r="K140" s="320"/>
       <c r="L140" s="320"/>
@@ -39440,22 +39400,22 @@
       <c r="N140" s="60"/>
       <c r="O140" s="60"/>
     </row>
-    <row r="141" spans="1:15" s="318" customFormat="1" ht="21" customHeight="1">
+    <row r="141" spans="1:15" s="322" customFormat="1" ht="21" customHeight="1">
       <c r="A141" s="59"/>
-      <c r="B141" s="53"/>
-      <c r="C141" s="57"/>
-      <c r="D141" s="57"/>
-      <c r="E141" s="57"/>
-      <c r="F141" s="104"/>
-      <c r="G141" s="54"/>
-      <c r="H141" s="54"/>
-      <c r="I141" s="61"/>
-      <c r="J141" s="61"/>
-      <c r="K141" s="54"/>
-      <c r="L141" s="61"/>
-      <c r="M141" s="61"/>
+      <c r="B141" s="59"/>
+      <c r="C141" s="320"/>
+      <c r="D141" s="339"/>
+      <c r="E141" s="339"/>
+      <c r="F141" s="339"/>
+      <c r="G141" s="321"/>
+      <c r="H141" s="60"/>
+      <c r="I141" s="339"/>
+      <c r="J141" s="320"/>
+      <c r="K141" s="320"/>
+      <c r="L141" s="320"/>
+      <c r="M141" s="320"/>
       <c r="N141" s="60"/>
-      <c r="O141" s="54"/>
+      <c r="O141" s="60"/>
     </row>
     <row r="142" spans="1:15" s="318" customFormat="1" ht="21" customHeight="1">
       <c r="A142" s="59"/>
@@ -39525,7 +39485,7 @@
       <c r="N145" s="60"/>
       <c r="O145" s="54"/>
     </row>
-    <row r="146" spans="1:15" s="318" customFormat="1" ht="20" customHeight="1">
+    <row r="146" spans="1:15" s="318" customFormat="1" ht="21" customHeight="1">
       <c r="A146" s="59"/>
       <c r="B146" s="53"/>
       <c r="C146" s="57"/>
@@ -39557,7 +39517,7 @@
       <c r="L147" s="61"/>
       <c r="M147" s="61"/>
       <c r="N147" s="60"/>
-      <c r="O147" s="99"/>
+      <c r="O147" s="54"/>
     </row>
     <row r="148" spans="1:15" s="318" customFormat="1" ht="20" customHeight="1">
       <c r="A148" s="59"/>
@@ -39816,44 +39776,44 @@
     </row>
     <row r="163" spans="1:249" s="318" customFormat="1" ht="20" customHeight="1">
       <c r="A163" s="59"/>
-      <c r="B163" s="229"/>
-      <c r="C163" s="65"/>
-      <c r="D163" s="65"/>
-      <c r="E163" s="65"/>
-      <c r="F163" s="423"/>
-      <c r="G163" s="206"/>
-      <c r="H163" s="206"/>
-      <c r="I163" s="64"/>
-      <c r="J163" s="64"/>
-      <c r="K163" s="206"/>
-      <c r="L163" s="64"/>
-      <c r="M163" s="64"/>
-      <c r="N163" s="77"/>
-      <c r="O163" s="207"/>
+      <c r="B163" s="53"/>
+      <c r="C163" s="57"/>
+      <c r="D163" s="57"/>
+      <c r="E163" s="57"/>
+      <c r="F163" s="104"/>
+      <c r="G163" s="54"/>
+      <c r="H163" s="54"/>
+      <c r="I163" s="61"/>
+      <c r="J163" s="61"/>
+      <c r="K163" s="54"/>
+      <c r="L163" s="61"/>
+      <c r="M163" s="61"/>
+      <c r="N163" s="60"/>
+      <c r="O163" s="99"/>
     </row>
     <row r="164" spans="1:249" s="318" customFormat="1" ht="20" customHeight="1">
       <c r="A164" s="59"/>
-      <c r="B164" s="53"/>
-      <c r="C164" s="57"/>
-      <c r="D164" s="57"/>
-      <c r="E164" s="57"/>
-      <c r="F164" s="104"/>
-      <c r="G164" s="54"/>
-      <c r="H164" s="54"/>
-      <c r="I164" s="61"/>
-      <c r="J164" s="61"/>
-      <c r="K164" s="54"/>
-      <c r="L164" s="61"/>
-      <c r="M164" s="61"/>
-      <c r="N164" s="60"/>
-      <c r="O164" s="99"/>
+      <c r="B164" s="229"/>
+      <c r="C164" s="65"/>
+      <c r="D164" s="65"/>
+      <c r="E164" s="65"/>
+      <c r="F164" s="423"/>
+      <c r="G164" s="206"/>
+      <c r="H164" s="206"/>
+      <c r="I164" s="64"/>
+      <c r="J164" s="64"/>
+      <c r="K164" s="206"/>
+      <c r="L164" s="64"/>
+      <c r="M164" s="64"/>
+      <c r="N164" s="77"/>
+      <c r="O164" s="207"/>
     </row>
     <row r="165" spans="1:249" s="318" customFormat="1" ht="20" customHeight="1">
       <c r="A165" s="59"/>
       <c r="B165" s="53"/>
-      <c r="C165" s="259"/>
-      <c r="D165" s="54"/>
-      <c r="E165" s="54"/>
+      <c r="C165" s="57"/>
+      <c r="D165" s="57"/>
+      <c r="E165" s="57"/>
       <c r="F165" s="104"/>
       <c r="G165" s="54"/>
       <c r="H165" s="54"/>
@@ -39879,7 +39839,7 @@
       <c r="K166" s="54"/>
       <c r="L166" s="61"/>
       <c r="M166" s="61"/>
-      <c r="N166" s="77"/>
+      <c r="N166" s="60"/>
       <c r="O166" s="99"/>
     </row>
     <row r="167" spans="1:249" s="318" customFormat="1" ht="20" customHeight="1">
@@ -39893,24 +39853,24 @@
       <c r="H167" s="54"/>
       <c r="I167" s="61"/>
       <c r="J167" s="61"/>
-      <c r="K167" s="206"/>
+      <c r="K167" s="54"/>
       <c r="L167" s="61"/>
       <c r="M167" s="61"/>
-      <c r="N167" s="60"/>
+      <c r="N167" s="77"/>
       <c r="O167" s="99"/>
     </row>
     <row r="168" spans="1:249" s="318" customFormat="1" ht="20" customHeight="1">
       <c r="A168" s="59"/>
       <c r="B168" s="53"/>
       <c r="C168" s="259"/>
-      <c r="D168" s="104"/>
-      <c r="E168" s="57"/>
+      <c r="D168" s="54"/>
+      <c r="E168" s="54"/>
       <c r="F168" s="104"/>
       <c r="G168" s="54"/>
       <c r="H168" s="54"/>
       <c r="I168" s="61"/>
       <c r="J168" s="61"/>
-      <c r="K168" s="54"/>
+      <c r="K168" s="206"/>
       <c r="L168" s="61"/>
       <c r="M168" s="61"/>
       <c r="N168" s="60"/>
@@ -39920,9 +39880,9 @@
       <c r="A169" s="59"/>
       <c r="B169" s="53"/>
       <c r="C169" s="259"/>
-      <c r="D169" s="73"/>
-      <c r="E169" s="54"/>
-      <c r="F169" s="72"/>
+      <c r="D169" s="104"/>
+      <c r="E169" s="57"/>
+      <c r="F169" s="104"/>
       <c r="G169" s="54"/>
       <c r="H169" s="54"/>
       <c r="I169" s="61"/>
@@ -39930,16 +39890,16 @@
       <c r="K169" s="54"/>
       <c r="L169" s="61"/>
       <c r="M169" s="61"/>
-      <c r="N169" s="77"/>
+      <c r="N169" s="60"/>
       <c r="O169" s="99"/>
     </row>
     <row r="170" spans="1:249" s="318" customFormat="1" ht="20" customHeight="1">
       <c r="A170" s="59"/>
       <c r="B170" s="53"/>
       <c r="C170" s="259"/>
-      <c r="D170" s="54"/>
-      <c r="E170" s="57"/>
-      <c r="F170" s="104"/>
+      <c r="D170" s="73"/>
+      <c r="E170" s="54"/>
+      <c r="F170" s="72"/>
       <c r="G170" s="54"/>
       <c r="H170" s="54"/>
       <c r="I170" s="61"/>
@@ -39950,256 +39910,22 @@
       <c r="N170" s="77"/>
       <c r="O170" s="99"/>
     </row>
-    <row r="171" spans="1:249" s="466" customFormat="1" ht="21" customHeight="1">
-      <c r="A171" s="462"/>
-      <c r="B171" s="462"/>
-      <c r="C171" s="460"/>
-      <c r="D171" s="463"/>
-      <c r="E171" s="463"/>
-      <c r="F171" s="464"/>
-      <c r="G171" s="463"/>
-      <c r="H171" s="463"/>
-      <c r="I171" s="464"/>
-      <c r="J171" s="464"/>
-      <c r="K171" s="463"/>
-      <c r="L171" s="464"/>
-      <c r="M171" s="464"/>
-      <c r="N171" s="463"/>
-      <c r="O171" s="463"/>
-      <c r="P171" s="465"/>
-      <c r="Q171" s="465"/>
-      <c r="R171" s="465"/>
-      <c r="S171" s="465"/>
-      <c r="T171" s="465"/>
-      <c r="U171" s="465"/>
-      <c r="V171" s="465"/>
-      <c r="W171" s="465"/>
-      <c r="X171" s="465"/>
-      <c r="Y171" s="465"/>
-      <c r="Z171" s="465"/>
-      <c r="AA171" s="465"/>
-      <c r="AB171" s="465"/>
-      <c r="AC171" s="465"/>
-      <c r="AD171" s="465"/>
-      <c r="AE171" s="465"/>
-      <c r="AF171" s="465"/>
-      <c r="AG171" s="465"/>
-      <c r="AH171" s="465"/>
-      <c r="AI171" s="465"/>
-      <c r="AJ171" s="465"/>
-      <c r="AK171" s="465"/>
-      <c r="AL171" s="465"/>
-      <c r="AM171" s="465"/>
-      <c r="AN171" s="465"/>
-      <c r="AO171" s="465"/>
-      <c r="AP171" s="465"/>
-      <c r="AQ171" s="465"/>
-      <c r="AR171" s="465"/>
-      <c r="AS171" s="465"/>
-      <c r="AT171" s="465"/>
-      <c r="AU171" s="465"/>
-      <c r="AV171" s="465"/>
-      <c r="AW171" s="465"/>
-      <c r="AX171" s="465"/>
-      <c r="AY171" s="465"/>
-      <c r="AZ171" s="465"/>
-      <c r="BA171" s="465"/>
-      <c r="BB171" s="465"/>
-      <c r="BC171" s="465"/>
-      <c r="BD171" s="465"/>
-      <c r="BE171" s="465"/>
-      <c r="BF171" s="465"/>
-      <c r="BG171" s="465"/>
-      <c r="BH171" s="465"/>
-      <c r="BI171" s="465"/>
-      <c r="BJ171" s="465"/>
-      <c r="BK171" s="465"/>
-      <c r="BL171" s="465"/>
-      <c r="BM171" s="465"/>
-      <c r="BN171" s="465"/>
-      <c r="BO171" s="465"/>
-      <c r="BP171" s="465"/>
-      <c r="BQ171" s="465"/>
-      <c r="BR171" s="465"/>
-      <c r="BS171" s="465"/>
-      <c r="BT171" s="465"/>
-      <c r="BU171" s="465"/>
-      <c r="BV171" s="465"/>
-      <c r="BW171" s="465"/>
-      <c r="BX171" s="465"/>
-      <c r="BY171" s="465"/>
-      <c r="BZ171" s="465"/>
-      <c r="CA171" s="465"/>
-      <c r="CB171" s="465"/>
-      <c r="CC171" s="465"/>
-      <c r="CD171" s="465"/>
-      <c r="CE171" s="465"/>
-      <c r="CF171" s="465"/>
-      <c r="CG171" s="465"/>
-      <c r="CH171" s="465"/>
-      <c r="CI171" s="465"/>
-      <c r="CJ171" s="465"/>
-      <c r="CK171" s="465"/>
-      <c r="CL171" s="465"/>
-      <c r="CM171" s="465"/>
-      <c r="CN171" s="465"/>
-      <c r="CO171" s="465"/>
-      <c r="CP171" s="465"/>
-      <c r="CQ171" s="465"/>
-      <c r="CR171" s="465"/>
-      <c r="CS171" s="465"/>
-      <c r="CT171" s="465"/>
-      <c r="CU171" s="465"/>
-      <c r="CV171" s="465"/>
-      <c r="CW171" s="465"/>
-      <c r="CX171" s="465"/>
-      <c r="CY171" s="465"/>
-      <c r="CZ171" s="465"/>
-      <c r="DA171" s="465"/>
-      <c r="DB171" s="465"/>
-      <c r="DC171" s="465"/>
-      <c r="DD171" s="465"/>
-      <c r="DE171" s="465"/>
-      <c r="DF171" s="465"/>
-      <c r="DG171" s="465"/>
-      <c r="DH171" s="465"/>
-      <c r="DI171" s="465"/>
-      <c r="DJ171" s="465"/>
-      <c r="DK171" s="465"/>
-      <c r="DL171" s="465"/>
-      <c r="DM171" s="465"/>
-      <c r="DN171" s="465"/>
-      <c r="DO171" s="465"/>
-      <c r="DP171" s="465"/>
-      <c r="DQ171" s="465"/>
-      <c r="DR171" s="465"/>
-      <c r="DS171" s="465"/>
-      <c r="DT171" s="465"/>
-      <c r="DU171" s="465"/>
-      <c r="DV171" s="465"/>
-      <c r="DW171" s="465"/>
-      <c r="DX171" s="465"/>
-      <c r="DY171" s="465"/>
-      <c r="DZ171" s="465"/>
-      <c r="EA171" s="465"/>
-      <c r="EB171" s="465"/>
-      <c r="EC171" s="465"/>
-      <c r="ED171" s="465"/>
-      <c r="EE171" s="465"/>
-      <c r="EF171" s="465"/>
-      <c r="EG171" s="465"/>
-      <c r="EH171" s="465"/>
-      <c r="EI171" s="465"/>
-      <c r="EJ171" s="465"/>
-      <c r="EK171" s="465"/>
-      <c r="EL171" s="465"/>
-      <c r="EM171" s="465"/>
-      <c r="EN171" s="465"/>
-      <c r="EO171" s="465"/>
-      <c r="EP171" s="465"/>
-      <c r="EQ171" s="465"/>
-      <c r="ER171" s="465"/>
-      <c r="ES171" s="465"/>
-      <c r="ET171" s="465"/>
-      <c r="EU171" s="465"/>
-      <c r="EV171" s="465"/>
-      <c r="EW171" s="465"/>
-      <c r="EX171" s="465"/>
-      <c r="EY171" s="465"/>
-      <c r="EZ171" s="465"/>
-      <c r="FA171" s="465"/>
-      <c r="FB171" s="465"/>
-      <c r="FC171" s="465"/>
-      <c r="FD171" s="465"/>
-      <c r="FE171" s="465"/>
-      <c r="FF171" s="465"/>
-      <c r="FG171" s="465"/>
-      <c r="FH171" s="465"/>
-      <c r="FI171" s="465"/>
-      <c r="FJ171" s="465"/>
-      <c r="FK171" s="465"/>
-      <c r="FL171" s="465"/>
-      <c r="FM171" s="465"/>
-      <c r="FN171" s="465"/>
-      <c r="FO171" s="465"/>
-      <c r="FP171" s="465"/>
-      <c r="FQ171" s="465"/>
-      <c r="FR171" s="465"/>
-      <c r="FS171" s="465"/>
-      <c r="FT171" s="465"/>
-      <c r="FU171" s="465"/>
-      <c r="FV171" s="465"/>
-      <c r="FW171" s="465"/>
-      <c r="FX171" s="465"/>
-      <c r="FY171" s="465"/>
-      <c r="FZ171" s="465"/>
-      <c r="GA171" s="465"/>
-      <c r="GB171" s="465"/>
-      <c r="GC171" s="465"/>
-      <c r="GD171" s="465"/>
-      <c r="GE171" s="465"/>
-      <c r="GF171" s="465"/>
-      <c r="GG171" s="465"/>
-      <c r="GH171" s="465"/>
-      <c r="GI171" s="465"/>
-      <c r="GJ171" s="465"/>
-      <c r="GK171" s="465"/>
-      <c r="GL171" s="465"/>
-      <c r="GM171" s="465"/>
-      <c r="GN171" s="465"/>
-      <c r="GO171" s="465"/>
-      <c r="GP171" s="465"/>
-      <c r="GQ171" s="465"/>
-      <c r="GR171" s="465"/>
-      <c r="GS171" s="465"/>
-      <c r="GT171" s="465"/>
-      <c r="GU171" s="465"/>
-      <c r="GV171" s="465"/>
-      <c r="GW171" s="465"/>
-      <c r="GX171" s="465"/>
-      <c r="GY171" s="465"/>
-      <c r="GZ171" s="465"/>
-      <c r="HA171" s="465"/>
-      <c r="HB171" s="465"/>
-      <c r="HC171" s="465"/>
-      <c r="HD171" s="465"/>
-      <c r="HE171" s="465"/>
-      <c r="HF171" s="465"/>
-      <c r="HG171" s="465"/>
-      <c r="HH171" s="465"/>
-      <c r="HI171" s="465"/>
-      <c r="HJ171" s="465"/>
-      <c r="HK171" s="465"/>
-      <c r="HL171" s="465"/>
-      <c r="HM171" s="465"/>
-      <c r="HN171" s="465"/>
-      <c r="HO171" s="465"/>
-      <c r="HP171" s="465"/>
-      <c r="HQ171" s="465"/>
-      <c r="HR171" s="465"/>
-      <c r="HS171" s="465"/>
-      <c r="HT171" s="465"/>
-      <c r="HU171" s="465"/>
-      <c r="HV171" s="465"/>
-      <c r="HW171" s="465"/>
-      <c r="HX171" s="465"/>
-      <c r="HY171" s="465"/>
-      <c r="HZ171" s="465"/>
-      <c r="IA171" s="465"/>
-      <c r="IB171" s="465"/>
-      <c r="IC171" s="465"/>
-      <c r="ID171" s="465"/>
-      <c r="IE171" s="465"/>
-      <c r="IF171" s="465"/>
-      <c r="IG171" s="465"/>
-      <c r="IH171" s="465"/>
-      <c r="II171" s="465"/>
-      <c r="IJ171" s="465"/>
-      <c r="IK171" s="465"/>
-      <c r="IL171" s="465"/>
-      <c r="IM171" s="465"/>
-      <c r="IN171" s="465"/>
-      <c r="IO171" s="465"/>
+    <row r="171" spans="1:249" s="318" customFormat="1" ht="20" customHeight="1">
+      <c r="A171" s="59"/>
+      <c r="B171" s="53"/>
+      <c r="C171" s="259"/>
+      <c r="D171" s="54"/>
+      <c r="E171" s="57"/>
+      <c r="F171" s="104"/>
+      <c r="G171" s="54"/>
+      <c r="H171" s="54"/>
+      <c r="I171" s="61"/>
+      <c r="J171" s="61"/>
+      <c r="K171" s="54"/>
+      <c r="L171" s="61"/>
+      <c r="M171" s="61"/>
+      <c r="N171" s="77"/>
+      <c r="O171" s="99"/>
     </row>
     <row r="172" spans="1:249" s="466" customFormat="1" ht="21" customHeight="1">
       <c r="A172" s="462"/>
@@ -40707,12 +40433,12 @@
       <c r="A174" s="462"/>
       <c r="B174" s="462"/>
       <c r="C174" s="460"/>
-      <c r="D174" s="467"/>
-      <c r="E174" s="467"/>
+      <c r="D174" s="463"/>
+      <c r="E174" s="463"/>
       <c r="F174" s="464"/>
-      <c r="G174" s="467"/>
+      <c r="G174" s="463"/>
       <c r="H174" s="463"/>
-      <c r="I174" s="463"/>
+      <c r="I174" s="464"/>
       <c r="J174" s="464"/>
       <c r="K174" s="463"/>
       <c r="L174" s="464"/>
@@ -41211,10 +40937,10 @@
       <c r="C176" s="460"/>
       <c r="D176" s="467"/>
       <c r="E176" s="467"/>
-      <c r="F176" s="468"/>
+      <c r="F176" s="464"/>
       <c r="G176" s="467"/>
       <c r="H176" s="463"/>
-      <c r="I176" s="467"/>
+      <c r="I176" s="463"/>
       <c r="J176" s="464"/>
       <c r="K176" s="463"/>
       <c r="L176" s="464"/>
@@ -41465,7 +41191,7 @@
       <c r="F177" s="468"/>
       <c r="G177" s="467"/>
       <c r="H177" s="463"/>
-      <c r="I177" s="469"/>
+      <c r="I177" s="467"/>
       <c r="J177" s="464"/>
       <c r="K177" s="463"/>
       <c r="L177" s="464"/>
@@ -41958,30 +41684,264 @@
       <c r="IN178" s="465"/>
       <c r="IO178" s="465"/>
     </row>
-    <row r="179" spans="1:249" s="318" customFormat="1" ht="20" customHeight="1">
-      <c r="A179" s="59"/>
-      <c r="B179" s="53"/>
-      <c r="C179" s="259"/>
-      <c r="D179" s="73"/>
-      <c r="E179" s="54"/>
-      <c r="F179" s="72"/>
-      <c r="G179" s="518"/>
-      <c r="H179" s="54"/>
-      <c r="I179" s="61"/>
-      <c r="J179" s="61"/>
-      <c r="K179" s="54"/>
-      <c r="L179" s="61"/>
-      <c r="M179" s="61"/>
-      <c r="N179" s="77"/>
-      <c r="O179" s="99"/>
+    <row r="179" spans="1:249" s="466" customFormat="1" ht="21" customHeight="1">
+      <c r="A179" s="462"/>
+      <c r="B179" s="462"/>
+      <c r="C179" s="460"/>
+      <c r="D179" s="467"/>
+      <c r="E179" s="467"/>
+      <c r="F179" s="468"/>
+      <c r="G179" s="467"/>
+      <c r="H179" s="463"/>
+      <c r="I179" s="469"/>
+      <c r="J179" s="464"/>
+      <c r="K179" s="463"/>
+      <c r="L179" s="464"/>
+      <c r="M179" s="464"/>
+      <c r="N179" s="463"/>
+      <c r="O179" s="463"/>
+      <c r="P179" s="465"/>
+      <c r="Q179" s="465"/>
+      <c r="R179" s="465"/>
+      <c r="S179" s="465"/>
+      <c r="T179" s="465"/>
+      <c r="U179" s="465"/>
+      <c r="V179" s="465"/>
+      <c r="W179" s="465"/>
+      <c r="X179" s="465"/>
+      <c r="Y179" s="465"/>
+      <c r="Z179" s="465"/>
+      <c r="AA179" s="465"/>
+      <c r="AB179" s="465"/>
+      <c r="AC179" s="465"/>
+      <c r="AD179" s="465"/>
+      <c r="AE179" s="465"/>
+      <c r="AF179" s="465"/>
+      <c r="AG179" s="465"/>
+      <c r="AH179" s="465"/>
+      <c r="AI179" s="465"/>
+      <c r="AJ179" s="465"/>
+      <c r="AK179" s="465"/>
+      <c r="AL179" s="465"/>
+      <c r="AM179" s="465"/>
+      <c r="AN179" s="465"/>
+      <c r="AO179" s="465"/>
+      <c r="AP179" s="465"/>
+      <c r="AQ179" s="465"/>
+      <c r="AR179" s="465"/>
+      <c r="AS179" s="465"/>
+      <c r="AT179" s="465"/>
+      <c r="AU179" s="465"/>
+      <c r="AV179" s="465"/>
+      <c r="AW179" s="465"/>
+      <c r="AX179" s="465"/>
+      <c r="AY179" s="465"/>
+      <c r="AZ179" s="465"/>
+      <c r="BA179" s="465"/>
+      <c r="BB179" s="465"/>
+      <c r="BC179" s="465"/>
+      <c r="BD179" s="465"/>
+      <c r="BE179" s="465"/>
+      <c r="BF179" s="465"/>
+      <c r="BG179" s="465"/>
+      <c r="BH179" s="465"/>
+      <c r="BI179" s="465"/>
+      <c r="BJ179" s="465"/>
+      <c r="BK179" s="465"/>
+      <c r="BL179" s="465"/>
+      <c r="BM179" s="465"/>
+      <c r="BN179" s="465"/>
+      <c r="BO179" s="465"/>
+      <c r="BP179" s="465"/>
+      <c r="BQ179" s="465"/>
+      <c r="BR179" s="465"/>
+      <c r="BS179" s="465"/>
+      <c r="BT179" s="465"/>
+      <c r="BU179" s="465"/>
+      <c r="BV179" s="465"/>
+      <c r="BW179" s="465"/>
+      <c r="BX179" s="465"/>
+      <c r="BY179" s="465"/>
+      <c r="BZ179" s="465"/>
+      <c r="CA179" s="465"/>
+      <c r="CB179" s="465"/>
+      <c r="CC179" s="465"/>
+      <c r="CD179" s="465"/>
+      <c r="CE179" s="465"/>
+      <c r="CF179" s="465"/>
+      <c r="CG179" s="465"/>
+      <c r="CH179" s="465"/>
+      <c r="CI179" s="465"/>
+      <c r="CJ179" s="465"/>
+      <c r="CK179" s="465"/>
+      <c r="CL179" s="465"/>
+      <c r="CM179" s="465"/>
+      <c r="CN179" s="465"/>
+      <c r="CO179" s="465"/>
+      <c r="CP179" s="465"/>
+      <c r="CQ179" s="465"/>
+      <c r="CR179" s="465"/>
+      <c r="CS179" s="465"/>
+      <c r="CT179" s="465"/>
+      <c r="CU179" s="465"/>
+      <c r="CV179" s="465"/>
+      <c r="CW179" s="465"/>
+      <c r="CX179" s="465"/>
+      <c r="CY179" s="465"/>
+      <c r="CZ179" s="465"/>
+      <c r="DA179" s="465"/>
+      <c r="DB179" s="465"/>
+      <c r="DC179" s="465"/>
+      <c r="DD179" s="465"/>
+      <c r="DE179" s="465"/>
+      <c r="DF179" s="465"/>
+      <c r="DG179" s="465"/>
+      <c r="DH179" s="465"/>
+      <c r="DI179" s="465"/>
+      <c r="DJ179" s="465"/>
+      <c r="DK179" s="465"/>
+      <c r="DL179" s="465"/>
+      <c r="DM179" s="465"/>
+      <c r="DN179" s="465"/>
+      <c r="DO179" s="465"/>
+      <c r="DP179" s="465"/>
+      <c r="DQ179" s="465"/>
+      <c r="DR179" s="465"/>
+      <c r="DS179" s="465"/>
+      <c r="DT179" s="465"/>
+      <c r="DU179" s="465"/>
+      <c r="DV179" s="465"/>
+      <c r="DW179" s="465"/>
+      <c r="DX179" s="465"/>
+      <c r="DY179" s="465"/>
+      <c r="DZ179" s="465"/>
+      <c r="EA179" s="465"/>
+      <c r="EB179" s="465"/>
+      <c r="EC179" s="465"/>
+      <c r="ED179" s="465"/>
+      <c r="EE179" s="465"/>
+      <c r="EF179" s="465"/>
+      <c r="EG179" s="465"/>
+      <c r="EH179" s="465"/>
+      <c r="EI179" s="465"/>
+      <c r="EJ179" s="465"/>
+      <c r="EK179" s="465"/>
+      <c r="EL179" s="465"/>
+      <c r="EM179" s="465"/>
+      <c r="EN179" s="465"/>
+      <c r="EO179" s="465"/>
+      <c r="EP179" s="465"/>
+      <c r="EQ179" s="465"/>
+      <c r="ER179" s="465"/>
+      <c r="ES179" s="465"/>
+      <c r="ET179" s="465"/>
+      <c r="EU179" s="465"/>
+      <c r="EV179" s="465"/>
+      <c r="EW179" s="465"/>
+      <c r="EX179" s="465"/>
+      <c r="EY179" s="465"/>
+      <c r="EZ179" s="465"/>
+      <c r="FA179" s="465"/>
+      <c r="FB179" s="465"/>
+      <c r="FC179" s="465"/>
+      <c r="FD179" s="465"/>
+      <c r="FE179" s="465"/>
+      <c r="FF179" s="465"/>
+      <c r="FG179" s="465"/>
+      <c r="FH179" s="465"/>
+      <c r="FI179" s="465"/>
+      <c r="FJ179" s="465"/>
+      <c r="FK179" s="465"/>
+      <c r="FL179" s="465"/>
+      <c r="FM179" s="465"/>
+      <c r="FN179" s="465"/>
+      <c r="FO179" s="465"/>
+      <c r="FP179" s="465"/>
+      <c r="FQ179" s="465"/>
+      <c r="FR179" s="465"/>
+      <c r="FS179" s="465"/>
+      <c r="FT179" s="465"/>
+      <c r="FU179" s="465"/>
+      <c r="FV179" s="465"/>
+      <c r="FW179" s="465"/>
+      <c r="FX179" s="465"/>
+      <c r="FY179" s="465"/>
+      <c r="FZ179" s="465"/>
+      <c r="GA179" s="465"/>
+      <c r="GB179" s="465"/>
+      <c r="GC179" s="465"/>
+      <c r="GD179" s="465"/>
+      <c r="GE179" s="465"/>
+      <c r="GF179" s="465"/>
+      <c r="GG179" s="465"/>
+      <c r="GH179" s="465"/>
+      <c r="GI179" s="465"/>
+      <c r="GJ179" s="465"/>
+      <c r="GK179" s="465"/>
+      <c r="GL179" s="465"/>
+      <c r="GM179" s="465"/>
+      <c r="GN179" s="465"/>
+      <c r="GO179" s="465"/>
+      <c r="GP179" s="465"/>
+      <c r="GQ179" s="465"/>
+      <c r="GR179" s="465"/>
+      <c r="GS179" s="465"/>
+      <c r="GT179" s="465"/>
+      <c r="GU179" s="465"/>
+      <c r="GV179" s="465"/>
+      <c r="GW179" s="465"/>
+      <c r="GX179" s="465"/>
+      <c r="GY179" s="465"/>
+      <c r="GZ179" s="465"/>
+      <c r="HA179" s="465"/>
+      <c r="HB179" s="465"/>
+      <c r="HC179" s="465"/>
+      <c r="HD179" s="465"/>
+      <c r="HE179" s="465"/>
+      <c r="HF179" s="465"/>
+      <c r="HG179" s="465"/>
+      <c r="HH179" s="465"/>
+      <c r="HI179" s="465"/>
+      <c r="HJ179" s="465"/>
+      <c r="HK179" s="465"/>
+      <c r="HL179" s="465"/>
+      <c r="HM179" s="465"/>
+      <c r="HN179" s="465"/>
+      <c r="HO179" s="465"/>
+      <c r="HP179" s="465"/>
+      <c r="HQ179" s="465"/>
+      <c r="HR179" s="465"/>
+      <c r="HS179" s="465"/>
+      <c r="HT179" s="465"/>
+      <c r="HU179" s="465"/>
+      <c r="HV179" s="465"/>
+      <c r="HW179" s="465"/>
+      <c r="HX179" s="465"/>
+      <c r="HY179" s="465"/>
+      <c r="HZ179" s="465"/>
+      <c r="IA179" s="465"/>
+      <c r="IB179" s="465"/>
+      <c r="IC179" s="465"/>
+      <c r="ID179" s="465"/>
+      <c r="IE179" s="465"/>
+      <c r="IF179" s="465"/>
+      <c r="IG179" s="465"/>
+      <c r="IH179" s="465"/>
+      <c r="II179" s="465"/>
+      <c r="IJ179" s="465"/>
+      <c r="IK179" s="465"/>
+      <c r="IL179" s="465"/>
+      <c r="IM179" s="465"/>
+      <c r="IN179" s="465"/>
+      <c r="IO179" s="465"/>
     </row>
     <row r="180" spans="1:249" s="318" customFormat="1" ht="20" customHeight="1">
       <c r="A180" s="59"/>
       <c r="B180" s="53"/>
       <c r="C180" s="259"/>
-      <c r="D180" s="54"/>
-      <c r="E180" s="57"/>
-      <c r="F180" s="104"/>
+      <c r="D180" s="73"/>
+      <c r="E180" s="54"/>
+      <c r="F180" s="72"/>
       <c r="G180" s="518"/>
       <c r="H180" s="54"/>
       <c r="I180" s="61"/>
@@ -42013,7 +41973,7 @@
       <c r="A182" s="59"/>
       <c r="B182" s="53"/>
       <c r="C182" s="259"/>
-      <c r="D182" s="57"/>
+      <c r="D182" s="54"/>
       <c r="E182" s="57"/>
       <c r="F182" s="104"/>
       <c r="G182" s="518"/>
@@ -42043,39 +42003,39 @@
       <c r="N183" s="77"/>
       <c r="O183" s="99"/>
     </row>
-    <row r="184" spans="1:249" s="313" customFormat="1" ht="20" customHeight="1">
-      <c r="A184" s="523"/>
-      <c r="B184" s="523"/>
+    <row r="184" spans="1:249" s="318" customFormat="1" ht="20" customHeight="1">
+      <c r="A184" s="59"/>
+      <c r="B184" s="53"/>
       <c r="C184" s="259"/>
-      <c r="D184" s="524"/>
-      <c r="E184" s="525"/>
-      <c r="F184" s="526"/>
-      <c r="G184" s="527"/>
-      <c r="H184" s="525"/>
-      <c r="I184" s="526"/>
-      <c r="J184" s="526"/>
-      <c r="K184" s="525"/>
-      <c r="L184" s="526"/>
-      <c r="M184" s="526"/>
-      <c r="N184" s="528"/>
-      <c r="O184" s="529"/>
-    </row>
-    <row r="185" spans="1:249" s="318" customFormat="1" ht="20" customHeight="1">
-      <c r="A185" s="59"/>
-      <c r="B185" s="53"/>
+      <c r="D184" s="57"/>
+      <c r="E184" s="57"/>
+      <c r="F184" s="104"/>
+      <c r="G184" s="518"/>
+      <c r="H184" s="54"/>
+      <c r="I184" s="61"/>
+      <c r="J184" s="61"/>
+      <c r="K184" s="54"/>
+      <c r="L184" s="61"/>
+      <c r="M184" s="61"/>
+      <c r="N184" s="77"/>
+      <c r="O184" s="99"/>
+    </row>
+    <row r="185" spans="1:249" s="313" customFormat="1" ht="20" customHeight="1">
+      <c r="A185" s="523"/>
+      <c r="B185" s="523"/>
       <c r="C185" s="259"/>
-      <c r="D185" s="73"/>
-      <c r="E185" s="54"/>
-      <c r="F185" s="72"/>
-      <c r="G185" s="518"/>
-      <c r="H185" s="54"/>
-      <c r="I185" s="61"/>
-      <c r="J185" s="61"/>
-      <c r="K185" s="54"/>
-      <c r="L185" s="61"/>
-      <c r="M185" s="61"/>
-      <c r="N185" s="77"/>
-      <c r="O185" s="99"/>
+      <c r="D185" s="524"/>
+      <c r="E185" s="525"/>
+      <c r="F185" s="526"/>
+      <c r="G185" s="527"/>
+      <c r="H185" s="525"/>
+      <c r="I185" s="526"/>
+      <c r="J185" s="526"/>
+      <c r="K185" s="525"/>
+      <c r="L185" s="526"/>
+      <c r="M185" s="526"/>
+      <c r="N185" s="528"/>
+      <c r="O185" s="529"/>
     </row>
     <row r="186" spans="1:249" s="318" customFormat="1" ht="20" customHeight="1">
       <c r="A186" s="59"/>
@@ -42111,11 +42071,28 @@
       <c r="N187" s="77"/>
       <c r="O187" s="99"/>
     </row>
+    <row r="188" spans="1:249" s="318" customFormat="1" ht="20" customHeight="1">
+      <c r="A188" s="59"/>
+      <c r="B188" s="53"/>
+      <c r="C188" s="259"/>
+      <c r="D188" s="73"/>
+      <c r="E188" s="54"/>
+      <c r="F188" s="72"/>
+      <c r="G188" s="518"/>
+      <c r="H188" s="54"/>
+      <c r="I188" s="61"/>
+      <c r="J188" s="61"/>
+      <c r="K188" s="54"/>
+      <c r="L188" s="61"/>
+      <c r="M188" s="61"/>
+      <c r="N188" s="77"/>
+      <c r="O188" s="99"/>
+    </row>
   </sheetData>
   <dataConsolidate/>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a value that after LiveFrom date" sqref="B131" xr:uid="{EB4CB59A-D663-4C4C-AAAC-D2AEAD1D4BBC}">
-      <formula1>IF((DATEDIF(A131,B131,"d")&gt;0),B131)</formula1>
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a value that after LiveFrom date" sqref="B132" xr:uid="{EB4CB59A-D663-4C4C-AAAC-D2AEAD1D4BBC}">
+      <formula1>IF((DATEDIF(A132,B132,"d")&gt;0),B132)</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180599999999998" footer="0.3"/>
@@ -42133,8 +42110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:T90"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
+    <sheetView showGridLines="0" topLeftCell="E76" workbookViewId="0">
+      <selection activeCell="E90" sqref="A4:XFD90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1"/>
@@ -44218,8 +44195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A2A25AD-5D69-564D-9511-0323740C2E1F}">
   <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A44" sqref="A39:XFD44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
@@ -44719,7 +44696,7 @@
   <dimension ref="A1:O253"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="A253" sqref="A4:XFD253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
@@ -49103,8 +49080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView showGridLines="0" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1"/>
